--- a/dados_falsos_processos_completos.xlsx
+++ b/dados_falsos_processos_completos.xlsx
@@ -3658,14 +3658,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3712,7 +3712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3729,14 +3729,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -4055,78 +4052,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="61.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="61.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="9" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="9" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="9" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="9" width="40.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="11" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="11" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="9" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="9" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="9" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="9" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="11" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="11" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="11" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="67" max="67" style="11" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="68" max="68" style="11" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="11" width="31.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="71" max="71" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="72" max="72" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="61.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="61.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="8" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="8" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="8" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="8" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="8" width="40.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="10" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="10" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="8" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="8" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="8" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="10" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="8" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="10" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="10" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="10" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="10" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="10" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -4366,37 +4363,37 @@
       <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>44242</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>44251</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>44251</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>44251</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>44344</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>45450</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>43832</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>43922</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>44053</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>44119</v>
       </c>
       <c r="R2" s="5"/>
@@ -4465,10 +4462,10 @@
       <c r="AO2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="7">
+      <c r="AP2" s="6">
         <v>44772</v>
       </c>
-      <c r="AQ2" s="7">
+      <c r="AQ2" s="6">
         <v>44784</v>
       </c>
       <c r="AR2" s="4" t="s">
@@ -4518,31 +4515,31 @@
       <c r="BH2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI2" s="7">
+      <c r="BI2" s="6">
         <v>45311</v>
       </c>
-      <c r="BJ2" s="7">
+      <c r="BJ2" s="6">
         <v>44633</v>
       </c>
-      <c r="BK2" s="7">
+      <c r="BK2" s="6">
         <v>45095</v>
       </c>
       <c r="BL2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM2" s="7">
+      <c r="BM2" s="6">
         <v>44922</v>
       </c>
-      <c r="BN2" s="7">
+      <c r="BN2" s="6">
         <v>45346</v>
       </c>
-      <c r="BO2" s="7">
+      <c r="BO2" s="6">
         <v>44433</v>
       </c>
-      <c r="BP2" s="7">
+      <c r="BP2" s="6">
         <v>44661</v>
       </c>
-      <c r="BQ2" s="7">
+      <c r="BQ2" s="6">
         <v>44851</v>
       </c>
       <c r="BR2" s="4" t="s">
@@ -4574,37 +4571,37 @@
       <c r="F3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>45168</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>44340</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>44340</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>44340</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>44939</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>44858</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>44469</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>44356</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>45533</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <v>44424</v>
       </c>
       <c r="R3" s="5"/>
@@ -4673,10 +4670,10 @@
       <c r="AO3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP3" s="7">
+      <c r="AP3" s="6">
         <v>45151</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AQ3" s="6">
         <v>43970</v>
       </c>
       <c r="AR3" s="4" t="s">
@@ -4726,31 +4723,31 @@
       <c r="BH3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI3" s="7">
+      <c r="BI3" s="6">
         <v>44158</v>
       </c>
-      <c r="BJ3" s="7">
+      <c r="BJ3" s="6">
         <v>44561</v>
       </c>
-      <c r="BK3" s="7">
+      <c r="BK3" s="6">
         <v>44080</v>
       </c>
       <c r="BL3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM3" s="7">
+      <c r="BM3" s="6">
         <v>44207</v>
       </c>
-      <c r="BN3" s="7">
+      <c r="BN3" s="6">
         <v>44113</v>
       </c>
-      <c r="BO3" s="7">
+      <c r="BO3" s="6">
         <v>45246</v>
       </c>
-      <c r="BP3" s="7">
+      <c r="BP3" s="6">
         <v>44466</v>
       </c>
-      <c r="BQ3" s="7">
+      <c r="BQ3" s="6">
         <v>43922</v>
       </c>
       <c r="BR3" s="4" t="s">
@@ -4782,37 +4779,37 @@
       <c r="F4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>44439</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>43933</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>43933</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>43933</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>44083</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>44432</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>43982</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>45348</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>44506</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>44026</v>
       </c>
       <c r="R4" s="5"/>
@@ -4881,10 +4878,10 @@
       <c r="AO4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP4" s="7">
+      <c r="AP4" s="6">
         <v>45060</v>
       </c>
-      <c r="AQ4" s="7">
+      <c r="AQ4" s="6">
         <v>44820</v>
       </c>
       <c r="AR4" s="4" t="s">
@@ -4934,31 +4931,31 @@
       <c r="BH4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI4" s="7">
+      <c r="BI4" s="6">
         <v>45597</v>
       </c>
-      <c r="BJ4" s="7">
+      <c r="BJ4" s="6">
         <v>44962</v>
       </c>
-      <c r="BK4" s="7">
+      <c r="BK4" s="6">
         <v>43948</v>
       </c>
       <c r="BL4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM4" s="7">
+      <c r="BM4" s="6">
         <v>44924</v>
       </c>
-      <c r="BN4" s="7">
+      <c r="BN4" s="6">
         <v>44243</v>
       </c>
-      <c r="BO4" s="7">
+      <c r="BO4" s="6">
         <v>43940</v>
       </c>
-      <c r="BP4" s="7">
+      <c r="BP4" s="6">
         <v>44101</v>
       </c>
-      <c r="BQ4" s="7">
+      <c r="BQ4" s="6">
         <v>45592</v>
       </c>
       <c r="BR4" s="4" t="s">
@@ -4990,37 +4987,37 @@
       <c r="F5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>45209</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>44510</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>44510</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>44510</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>44411</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>45307</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>44628</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>45504</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>45482</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>45095</v>
       </c>
       <c r="R5" s="5"/>
@@ -5089,10 +5086,10 @@
       <c r="AO5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP5" s="7">
+      <c r="AP5" s="6">
         <v>44247</v>
       </c>
-      <c r="AQ5" s="7">
+      <c r="AQ5" s="6">
         <v>45599</v>
       </c>
       <c r="AR5" s="4" t="s">
@@ -5142,31 +5139,31 @@
       <c r="BH5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI5" s="7">
+      <c r="BI5" s="6">
         <v>44731</v>
       </c>
-      <c r="BJ5" s="7">
+      <c r="BJ5" s="6">
         <v>44139</v>
       </c>
-      <c r="BK5" s="7">
+      <c r="BK5" s="6">
         <v>44984</v>
       </c>
       <c r="BL5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM5" s="7">
+      <c r="BM5" s="6">
         <v>44605</v>
       </c>
-      <c r="BN5" s="7">
+      <c r="BN5" s="6">
         <v>45329</v>
       </c>
-      <c r="BO5" s="7">
+      <c r="BO5" s="6">
         <v>45331</v>
       </c>
-      <c r="BP5" s="7">
+      <c r="BP5" s="6">
         <v>44870</v>
       </c>
-      <c r="BQ5" s="7">
+      <c r="BQ5" s="6">
         <v>45410</v>
       </c>
       <c r="BR5" s="4" t="s">
@@ -5198,37 +5195,37 @@
       <c r="F6" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>44366</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>44728</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>44728</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>44728</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>44860</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>45093</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>44647</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>44507</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>44330</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>44074</v>
       </c>
       <c r="R6" s="5"/>
@@ -5297,10 +5294,10 @@
       <c r="AO6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP6" s="7">
+      <c r="AP6" s="6">
         <v>44851</v>
       </c>
-      <c r="AQ6" s="7">
+      <c r="AQ6" s="6">
         <v>45074</v>
       </c>
       <c r="AR6" s="4" t="s">
@@ -5350,31 +5347,31 @@
       <c r="BH6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI6" s="7">
+      <c r="BI6" s="6">
         <v>44500</v>
       </c>
-      <c r="BJ6" s="7">
+      <c r="BJ6" s="6">
         <v>45552</v>
       </c>
-      <c r="BK6" s="7">
+      <c r="BK6" s="6">
         <v>45126</v>
       </c>
       <c r="BL6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM6" s="7">
+      <c r="BM6" s="6">
         <v>44204</v>
       </c>
-      <c r="BN6" s="7">
+      <c r="BN6" s="6">
         <v>44705</v>
       </c>
-      <c r="BO6" s="7">
+      <c r="BO6" s="6">
         <v>44860</v>
       </c>
-      <c r="BP6" s="7">
+      <c r="BP6" s="6">
         <v>44173</v>
       </c>
-      <c r="BQ6" s="7">
+      <c r="BQ6" s="6">
         <v>44081</v>
       </c>
       <c r="BR6" s="4" t="s">
@@ -5406,37 +5403,37 @@
       <c r="F7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>45422</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>44209</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>44209</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>44209</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>45194</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>44572</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>45359</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>45061</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>44049</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <v>44631</v>
       </c>
       <c r="R7" s="5"/>
@@ -5503,10 +5500,10 @@
       <c r="AO7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP7" s="7">
+      <c r="AP7" s="6">
         <v>44326</v>
       </c>
-      <c r="AQ7" s="7">
+      <c r="AQ7" s="6">
         <v>44240</v>
       </c>
       <c r="AR7" s="4" t="s">
@@ -5556,31 +5553,31 @@
       <c r="BH7" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI7" s="7">
+      <c r="BI7" s="6">
         <v>44063</v>
       </c>
-      <c r="BJ7" s="7">
+      <c r="BJ7" s="6">
         <v>44172</v>
       </c>
-      <c r="BK7" s="7">
+      <c r="BK7" s="6">
         <v>45018</v>
       </c>
       <c r="BL7" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM7" s="7">
+      <c r="BM7" s="6">
         <v>44056</v>
       </c>
-      <c r="BN7" s="7">
+      <c r="BN7" s="6">
         <v>44518</v>
       </c>
-      <c r="BO7" s="7">
+      <c r="BO7" s="6">
         <v>45536</v>
       </c>
-      <c r="BP7" s="7">
+      <c r="BP7" s="6">
         <v>45592</v>
       </c>
-      <c r="BQ7" s="7">
+      <c r="BQ7" s="6">
         <v>44630</v>
       </c>
       <c r="BR7" s="4" t="s">
@@ -5612,37 +5609,37 @@
       <c r="F8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>45410</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>45052</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>45052</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>45052</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>44114</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>44525</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>45238</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>44436</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>44652</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>44843</v>
       </c>
       <c r="R8" s="5"/>
@@ -5711,10 +5708,10 @@
       <c r="AO8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AP8" s="6">
         <v>44838</v>
       </c>
-      <c r="AQ8" s="7">
+      <c r="AQ8" s="6">
         <v>44190</v>
       </c>
       <c r="AR8" s="4" t="s">
@@ -5764,31 +5761,31 @@
       <c r="BH8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI8" s="7">
+      <c r="BI8" s="6">
         <v>44674</v>
       </c>
-      <c r="BJ8" s="7">
+      <c r="BJ8" s="6">
         <v>44738</v>
       </c>
-      <c r="BK8" s="7">
+      <c r="BK8" s="6">
         <v>45592</v>
       </c>
       <c r="BL8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM8" s="7">
+      <c r="BM8" s="6">
         <v>44769</v>
       </c>
-      <c r="BN8" s="7">
+      <c r="BN8" s="6">
         <v>44801</v>
       </c>
-      <c r="BO8" s="7">
+      <c r="BO8" s="6">
         <v>44353</v>
       </c>
-      <c r="BP8" s="7">
+      <c r="BP8" s="6">
         <v>44711</v>
       </c>
-      <c r="BQ8" s="7">
+      <c r="BQ8" s="6">
         <v>44196</v>
       </c>
       <c r="BR8" s="4" t="s">
@@ -5820,37 +5817,37 @@
       <c r="F9" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>44893</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>44004</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>44004</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>44004</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>43975</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>44013</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>44799</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>44847</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>43913</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>44090</v>
       </c>
       <c r="R9" s="5"/>
@@ -5919,10 +5916,10 @@
       <c r="AO9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP9" s="7">
+      <c r="AP9" s="6">
         <v>44209</v>
       </c>
-      <c r="AQ9" s="7">
+      <c r="AQ9" s="6">
         <v>44182</v>
       </c>
       <c r="AR9" s="4" t="s">
@@ -5972,31 +5969,31 @@
       <c r="BH9" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI9" s="7">
+      <c r="BI9" s="6">
         <v>44706</v>
       </c>
-      <c r="BJ9" s="7">
+      <c r="BJ9" s="6">
         <v>43943</v>
       </c>
-      <c r="BK9" s="7">
+      <c r="BK9" s="6">
         <v>44787</v>
       </c>
       <c r="BL9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM9" s="7">
+      <c r="BM9" s="6">
         <v>44824</v>
       </c>
-      <c r="BN9" s="7">
+      <c r="BN9" s="6">
         <v>44311</v>
       </c>
-      <c r="BO9" s="7">
+      <c r="BO9" s="6">
         <v>44245</v>
       </c>
-      <c r="BP9" s="7">
+      <c r="BP9" s="6">
         <v>44605</v>
       </c>
-      <c r="BQ9" s="7">
+      <c r="BQ9" s="6">
         <v>44874</v>
       </c>
       <c r="BR9" s="4" t="s">
@@ -6028,37 +6025,37 @@
       <c r="F10" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>44058</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>45256</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>45256</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>45256</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>45046</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>44401</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>44235</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>45033</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>45258</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>45187</v>
       </c>
       <c r="R10" s="5"/>
@@ -6127,10 +6124,10 @@
       <c r="AO10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP10" s="7">
+      <c r="AP10" s="6">
         <v>44412</v>
       </c>
-      <c r="AQ10" s="7">
+      <c r="AQ10" s="6">
         <v>44188</v>
       </c>
       <c r="AR10" s="4" t="s">
@@ -6180,31 +6177,31 @@
       <c r="BH10" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI10" s="7">
+      <c r="BI10" s="6">
         <v>44477</v>
       </c>
-      <c r="BJ10" s="7">
+      <c r="BJ10" s="6">
         <v>43886</v>
       </c>
-      <c r="BK10" s="7">
+      <c r="BK10" s="6">
         <v>45021</v>
       </c>
       <c r="BL10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM10" s="7">
+      <c r="BM10" s="6">
         <v>45442</v>
       </c>
-      <c r="BN10" s="7">
+      <c r="BN10" s="6">
         <v>44510</v>
       </c>
-      <c r="BO10" s="7">
+      <c r="BO10" s="6">
         <v>44877</v>
       </c>
-      <c r="BP10" s="7">
+      <c r="BP10" s="6">
         <v>44270</v>
       </c>
-      <c r="BQ10" s="7">
+      <c r="BQ10" s="6">
         <v>45004</v>
       </c>
       <c r="BR10" s="4" t="s">
@@ -6236,37 +6233,37 @@
       <c r="F11" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>44111</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>45376</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>45376</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>45376</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>45335</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>45352</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>44006</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>43910</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>44337</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>43890</v>
       </c>
       <c r="R11" s="5"/>
@@ -6335,10 +6332,10 @@
       <c r="AO11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="7">
+      <c r="AP11" s="6">
         <v>44663</v>
       </c>
-      <c r="AQ11" s="7">
+      <c r="AQ11" s="6">
         <v>44540</v>
       </c>
       <c r="AR11" s="4" t="s">
@@ -6388,31 +6385,31 @@
       <c r="BH11" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI11" s="7">
+      <c r="BI11" s="6">
         <v>45339</v>
       </c>
-      <c r="BJ11" s="7">
+      <c r="BJ11" s="6">
         <v>44198</v>
       </c>
-      <c r="BK11" s="7">
+      <c r="BK11" s="6">
         <v>45278</v>
       </c>
       <c r="BL11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM11" s="7">
+      <c r="BM11" s="6">
         <v>44204</v>
       </c>
-      <c r="BN11" s="7">
+      <c r="BN11" s="6">
         <v>45365</v>
       </c>
-      <c r="BO11" s="7">
+      <c r="BO11" s="6">
         <v>44574</v>
       </c>
-      <c r="BP11" s="7">
+      <c r="BP11" s="6">
         <v>44273</v>
       </c>
-      <c r="BQ11" s="7">
+      <c r="BQ11" s="6">
         <v>44042</v>
       </c>
       <c r="BR11" s="4" t="s">
@@ -6444,37 +6441,37 @@
       <c r="F12" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>44655</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>43878</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>43878</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>43878</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>44207</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>44575</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>44315</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>44544</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>44683</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>45296</v>
       </c>
       <c r="R12" s="5"/>
@@ -6543,10 +6540,10 @@
       <c r="AO12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP12" s="7">
+      <c r="AP12" s="6">
         <v>44190</v>
       </c>
-      <c r="AQ12" s="7">
+      <c r="AQ12" s="6">
         <v>44265</v>
       </c>
       <c r="AR12" s="4" t="s">
@@ -6596,31 +6593,31 @@
       <c r="BH12" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI12" s="7">
+      <c r="BI12" s="6">
         <v>45314</v>
       </c>
-      <c r="BJ12" s="7">
+      <c r="BJ12" s="6">
         <v>45492</v>
       </c>
-      <c r="BK12" s="7">
+      <c r="BK12" s="6">
         <v>45316</v>
       </c>
       <c r="BL12" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM12" s="7">
+      <c r="BM12" s="6">
         <v>44353</v>
       </c>
-      <c r="BN12" s="7">
+      <c r="BN12" s="6">
         <v>44154</v>
       </c>
-      <c r="BO12" s="7">
+      <c r="BO12" s="6">
         <v>45113</v>
       </c>
-      <c r="BP12" s="7">
+      <c r="BP12" s="6">
         <v>44629</v>
       </c>
-      <c r="BQ12" s="7">
+      <c r="BQ12" s="6">
         <v>44595</v>
       </c>
       <c r="BR12" s="4" t="s">
@@ -6652,37 +6649,37 @@
       <c r="F13" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>45274</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>45313</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>45313</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>45313</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>45056</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>44720</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>45597</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>44699</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>44938</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>45052</v>
       </c>
       <c r="R13" s="5"/>
@@ -6751,10 +6748,10 @@
       <c r="AO13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP13" s="7">
+      <c r="AP13" s="6">
         <v>44985</v>
       </c>
-      <c r="AQ13" s="7">
+      <c r="AQ13" s="6">
         <v>45026</v>
       </c>
       <c r="AR13" s="4" t="s">
@@ -6804,31 +6801,31 @@
       <c r="BH13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI13" s="7">
+      <c r="BI13" s="6">
         <v>44514</v>
       </c>
-      <c r="BJ13" s="7">
+      <c r="BJ13" s="6">
         <v>44082</v>
       </c>
-      <c r="BK13" s="7">
+      <c r="BK13" s="6">
         <v>44960</v>
       </c>
       <c r="BL13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM13" s="7">
+      <c r="BM13" s="6">
         <v>45542</v>
       </c>
-      <c r="BN13" s="7">
+      <c r="BN13" s="6">
         <v>44679</v>
       </c>
-      <c r="BO13" s="7">
+      <c r="BO13" s="6">
         <v>44397</v>
       </c>
-      <c r="BP13" s="7">
+      <c r="BP13" s="6">
         <v>44422</v>
       </c>
-      <c r="BQ13" s="7">
+      <c r="BQ13" s="6">
         <v>45498</v>
       </c>
       <c r="BR13" s="4" t="s">
@@ -6860,37 +6857,37 @@
       <c r="F14" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>44381</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>44665</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>44665</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>44665</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>44040</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>44304</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>45292</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>44550</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>44203</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>45429</v>
       </c>
       <c r="R14" s="5"/>
@@ -6959,10 +6956,10 @@
       <c r="AO14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP14" s="7">
+      <c r="AP14" s="6">
         <v>45519</v>
       </c>
-      <c r="AQ14" s="7">
+      <c r="AQ14" s="6">
         <v>44991</v>
       </c>
       <c r="AR14" s="4" t="s">
@@ -7012,31 +7009,31 @@
       <c r="BH14" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI14" s="7">
+      <c r="BI14" s="6">
         <v>44088</v>
       </c>
-      <c r="BJ14" s="7">
+      <c r="BJ14" s="6">
         <v>45302</v>
       </c>
-      <c r="BK14" s="7">
+      <c r="BK14" s="6">
         <v>44552</v>
       </c>
       <c r="BL14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM14" s="7">
+      <c r="BM14" s="6">
         <v>44032</v>
       </c>
-      <c r="BN14" s="7">
+      <c r="BN14" s="6">
         <v>45105</v>
       </c>
-      <c r="BO14" s="7">
+      <c r="BO14" s="6">
         <v>44247</v>
       </c>
-      <c r="BP14" s="7">
+      <c r="BP14" s="6">
         <v>45322</v>
       </c>
-      <c r="BQ14" s="7">
+      <c r="BQ14" s="6">
         <v>44954</v>
       </c>
       <c r="BR14" s="4" t="s">
@@ -7068,37 +7065,37 @@
       <c r="F15" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>44806</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>44240</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>44240</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>44240</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>45161</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>45034</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>45481</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>45229</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>44372</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <v>44328</v>
       </c>
       <c r="R15" s="5"/>
@@ -7167,10 +7164,10 @@
       <c r="AO15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP15" s="7">
+      <c r="AP15" s="6">
         <v>45131</v>
       </c>
-      <c r="AQ15" s="7">
+      <c r="AQ15" s="6">
         <v>45318</v>
       </c>
       <c r="AR15" s="4" t="s">
@@ -7220,31 +7217,31 @@
       <c r="BH15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI15" s="7">
+      <c r="BI15" s="6">
         <v>44610</v>
       </c>
-      <c r="BJ15" s="7">
+      <c r="BJ15" s="6">
         <v>45220</v>
       </c>
-      <c r="BK15" s="7">
+      <c r="BK15" s="6">
         <v>44351</v>
       </c>
       <c r="BL15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM15" s="7">
+      <c r="BM15" s="6">
         <v>45534</v>
       </c>
-      <c r="BN15" s="7">
+      <c r="BN15" s="6">
         <v>43858</v>
       </c>
-      <c r="BO15" s="7">
+      <c r="BO15" s="6">
         <v>44209</v>
       </c>
-      <c r="BP15" s="7">
+      <c r="BP15" s="6">
         <v>44940</v>
       </c>
-      <c r="BQ15" s="7">
+      <c r="BQ15" s="6">
         <v>44593</v>
       </c>
       <c r="BR15" s="4" t="s">
@@ -7276,37 +7273,37 @@
       <c r="F16" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>45086</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>44373</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>44373</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>44373</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>44870</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>44029</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>44912</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>45033</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <v>44652</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>44125</v>
       </c>
       <c r="R16" s="5"/>
@@ -7375,10 +7372,10 @@
       <c r="AO16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP16" s="7">
+      <c r="AP16" s="6">
         <v>45153</v>
       </c>
-      <c r="AQ16" s="7">
+      <c r="AQ16" s="6">
         <v>44397</v>
       </c>
       <c r="AR16" s="4" t="s">
@@ -7428,31 +7425,31 @@
       <c r="BH16" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI16" s="7">
+      <c r="BI16" s="6">
         <v>45254</v>
       </c>
-      <c r="BJ16" s="7">
+      <c r="BJ16" s="6">
         <v>44249</v>
       </c>
-      <c r="BK16" s="7">
+      <c r="BK16" s="6">
         <v>44135</v>
       </c>
       <c r="BL16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM16" s="7">
+      <c r="BM16" s="6">
         <v>44844</v>
       </c>
-      <c r="BN16" s="7">
+      <c r="BN16" s="6">
         <v>45524</v>
       </c>
-      <c r="BO16" s="7">
+      <c r="BO16" s="6">
         <v>45271</v>
       </c>
-      <c r="BP16" s="7">
+      <c r="BP16" s="6">
         <v>44744</v>
       </c>
-      <c r="BQ16" s="7">
+      <c r="BQ16" s="6">
         <v>45396</v>
       </c>
       <c r="BR16" s="4" t="s">
@@ -7484,37 +7481,37 @@
       <c r="F17" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>45454</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>44429</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>44429</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>44429</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>45424</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>44677</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>44970</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>45296</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>44179</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>44952</v>
       </c>
       <c r="R17" s="5"/>
@@ -7583,10 +7580,10 @@
       <c r="AO17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP17" s="7">
+      <c r="AP17" s="6">
         <v>44183</v>
       </c>
-      <c r="AQ17" s="7">
+      <c r="AQ17" s="6">
         <v>43845</v>
       </c>
       <c r="AR17" s="4" t="s">
@@ -7636,31 +7633,31 @@
       <c r="BH17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI17" s="7">
+      <c r="BI17" s="6">
         <v>45296</v>
       </c>
-      <c r="BJ17" s="7">
+      <c r="BJ17" s="6">
         <v>43941</v>
       </c>
-      <c r="BK17" s="7">
+      <c r="BK17" s="6">
         <v>45415</v>
       </c>
       <c r="BL17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM17" s="7">
+      <c r="BM17" s="6">
         <v>43900</v>
       </c>
-      <c r="BN17" s="7">
+      <c r="BN17" s="6">
         <v>44351</v>
       </c>
-      <c r="BO17" s="7">
+      <c r="BO17" s="6">
         <v>44124</v>
       </c>
-      <c r="BP17" s="7">
+      <c r="BP17" s="6">
         <v>44174</v>
       </c>
-      <c r="BQ17" s="7">
+      <c r="BQ17" s="6">
         <v>43880</v>
       </c>
       <c r="BR17" s="4" t="s">
@@ -7692,37 +7689,37 @@
       <c r="F18" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>45157</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>45291</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>45291</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>45291</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>43962</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>44100</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>45458</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <v>45347</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="6">
         <v>43906</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <v>45498</v>
       </c>
       <c r="R18" s="5"/>
@@ -7791,10 +7788,10 @@
       <c r="AO18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP18" s="7">
+      <c r="AP18" s="6">
         <v>44118</v>
       </c>
-      <c r="AQ18" s="7">
+      <c r="AQ18" s="6">
         <v>43901</v>
       </c>
       <c r="AR18" s="4" t="s">
@@ -7844,31 +7841,31 @@
       <c r="BH18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI18" s="7">
+      <c r="BI18" s="6">
         <v>44671</v>
       </c>
-      <c r="BJ18" s="7">
+      <c r="BJ18" s="6">
         <v>45091</v>
       </c>
-      <c r="BK18" s="7">
+      <c r="BK18" s="6">
         <v>44000</v>
       </c>
       <c r="BL18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM18" s="7">
+      <c r="BM18" s="6">
         <v>45143</v>
       </c>
-      <c r="BN18" s="7">
+      <c r="BN18" s="6">
         <v>45292</v>
       </c>
-      <c r="BO18" s="7">
+      <c r="BO18" s="6">
         <v>45471</v>
       </c>
-      <c r="BP18" s="7">
+      <c r="BP18" s="6">
         <v>45315</v>
       </c>
-      <c r="BQ18" s="7">
+      <c r="BQ18" s="6">
         <v>43994</v>
       </c>
       <c r="BR18" s="4" t="s">
@@ -7900,37 +7897,37 @@
       <c r="F19" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>44873</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>45245</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>45245</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>45245</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>44710</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>44873</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>44469</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <v>43906</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="6">
         <v>44511</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>43918</v>
       </c>
       <c r="R19" s="5"/>
@@ -7999,10 +7996,10 @@
       <c r="AO19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP19" s="7">
+      <c r="AP19" s="6">
         <v>44285</v>
       </c>
-      <c r="AQ19" s="7">
+      <c r="AQ19" s="6">
         <v>45243</v>
       </c>
       <c r="AR19" s="4" t="s">
@@ -8052,31 +8049,31 @@
       <c r="BH19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI19" s="7">
+      <c r="BI19" s="6">
         <v>44290</v>
       </c>
-      <c r="BJ19" s="7">
+      <c r="BJ19" s="6">
         <v>45497</v>
       </c>
-      <c r="BK19" s="7">
+      <c r="BK19" s="6">
         <v>44201</v>
       </c>
       <c r="BL19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM19" s="7">
+      <c r="BM19" s="6">
         <v>44248</v>
       </c>
-      <c r="BN19" s="7">
+      <c r="BN19" s="6">
         <v>44192</v>
       </c>
-      <c r="BO19" s="7">
+      <c r="BO19" s="6">
         <v>44677</v>
       </c>
-      <c r="BP19" s="7">
+      <c r="BP19" s="6">
         <v>44394</v>
       </c>
-      <c r="BQ19" s="7">
+      <c r="BQ19" s="6">
         <v>44030</v>
       </c>
       <c r="BR19" s="4" t="s">
@@ -8108,37 +8105,37 @@
       <c r="F20" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>45439</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>44741</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>44741</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>44741</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>44400</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>44438</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>45170</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <v>45530</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="6">
         <v>43927</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="6">
         <v>45017</v>
       </c>
       <c r="R20" s="5"/>
@@ -8207,10 +8204,10 @@
       <c r="AO20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP20" s="7">
+      <c r="AP20" s="6">
         <v>45336</v>
       </c>
-      <c r="AQ20" s="7">
+      <c r="AQ20" s="6">
         <v>44187</v>
       </c>
       <c r="AR20" s="4" t="s">
@@ -8260,31 +8257,31 @@
       <c r="BH20" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI20" s="7">
+      <c r="BI20" s="6">
         <v>45447</v>
       </c>
-      <c r="BJ20" s="7">
+      <c r="BJ20" s="6">
         <v>44974</v>
       </c>
-      <c r="BK20" s="7">
+      <c r="BK20" s="6">
         <v>43895</v>
       </c>
       <c r="BL20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM20" s="7">
+      <c r="BM20" s="6">
         <v>45119</v>
       </c>
-      <c r="BN20" s="7">
+      <c r="BN20" s="6">
         <v>44829</v>
       </c>
-      <c r="BO20" s="7">
+      <c r="BO20" s="6">
         <v>44948</v>
       </c>
-      <c r="BP20" s="7">
+      <c r="BP20" s="6">
         <v>44523</v>
       </c>
-      <c r="BQ20" s="7">
+      <c r="BQ20" s="6">
         <v>44968</v>
       </c>
       <c r="BR20" s="4" t="s">
@@ -8316,37 +8313,37 @@
       <c r="F21" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>44813</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>44335</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>44335</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>44335</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>44266</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>43972</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>44725</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>44003</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="6">
         <v>44302</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>45001</v>
       </c>
       <c r="R21" s="5"/>
@@ -8415,10 +8412,10 @@
       <c r="AO21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP21" s="7">
+      <c r="AP21" s="6">
         <v>44669</v>
       </c>
-      <c r="AQ21" s="7">
+      <c r="AQ21" s="6">
         <v>45483</v>
       </c>
       <c r="AR21" s="4" t="s">
@@ -8468,31 +8465,31 @@
       <c r="BH21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI21" s="7">
+      <c r="BI21" s="6">
         <v>44705</v>
       </c>
-      <c r="BJ21" s="7">
+      <c r="BJ21" s="6">
         <v>44215</v>
       </c>
-      <c r="BK21" s="7">
+      <c r="BK21" s="6">
         <v>44857</v>
       </c>
       <c r="BL21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM21" s="7">
+      <c r="BM21" s="6">
         <v>45261</v>
       </c>
-      <c r="BN21" s="7">
+      <c r="BN21" s="6">
         <v>44442</v>
       </c>
-      <c r="BO21" s="7">
+      <c r="BO21" s="6">
         <v>45180</v>
       </c>
-      <c r="BP21" s="7">
+      <c r="BP21" s="6">
         <v>44325</v>
       </c>
-      <c r="BQ21" s="7">
+      <c r="BQ21" s="6">
         <v>44834</v>
       </c>
       <c r="BR21" s="4" t="s">
@@ -8524,37 +8521,37 @@
       <c r="F22" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>44904</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>44388</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>44388</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>44388</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>45169</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>45221</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>44741</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <v>45163</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="6">
         <v>43987</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="6">
         <v>45532</v>
       </c>
       <c r="R22" s="5"/>
@@ -8623,10 +8620,10 @@
       <c r="AO22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP22" s="7">
+      <c r="AP22" s="6">
         <v>45143</v>
       </c>
-      <c r="AQ22" s="7">
+      <c r="AQ22" s="6">
         <v>45021</v>
       </c>
       <c r="AR22" s="4" t="s">
@@ -8676,31 +8673,31 @@
       <c r="BH22" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI22" s="7">
+      <c r="BI22" s="6">
         <v>44688</v>
       </c>
-      <c r="BJ22" s="7">
+      <c r="BJ22" s="6">
         <v>45094</v>
       </c>
-      <c r="BK22" s="7">
+      <c r="BK22" s="6">
         <v>45328</v>
       </c>
       <c r="BL22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM22" s="7">
+      <c r="BM22" s="6">
         <v>44203</v>
       </c>
-      <c r="BN22" s="7">
+      <c r="BN22" s="6">
         <v>44699</v>
       </c>
-      <c r="BO22" s="7">
+      <c r="BO22" s="6">
         <v>45205</v>
       </c>
-      <c r="BP22" s="7">
+      <c r="BP22" s="6">
         <v>44321</v>
       </c>
-      <c r="BQ22" s="7">
+      <c r="BQ22" s="6">
         <v>44715</v>
       </c>
       <c r="BR22" s="4" t="s">
@@ -8732,37 +8729,37 @@
       <c r="F23" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>44562</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>44738</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>44738</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>44738</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>45295</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>44111</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <v>44341</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <v>43924</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="6">
         <v>44619</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="6">
         <v>44241</v>
       </c>
       <c r="R23" s="5"/>
@@ -8831,10 +8828,10 @@
       <c r="AO23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP23" s="7">
+      <c r="AP23" s="6">
         <v>44343</v>
       </c>
-      <c r="AQ23" s="7">
+      <c r="AQ23" s="6">
         <v>44564</v>
       </c>
       <c r="AR23" s="4" t="s">
@@ -8884,31 +8881,31 @@
       <c r="BH23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI23" s="7">
+      <c r="BI23" s="6">
         <v>45052</v>
       </c>
-      <c r="BJ23" s="7">
+      <c r="BJ23" s="6">
         <v>45567</v>
       </c>
-      <c r="BK23" s="7">
+      <c r="BK23" s="6">
         <v>44349</v>
       </c>
       <c r="BL23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM23" s="7">
+      <c r="BM23" s="6">
         <v>44929</v>
       </c>
-      <c r="BN23" s="7">
+      <c r="BN23" s="6">
         <v>45144</v>
       </c>
-      <c r="BO23" s="7">
+      <c r="BO23" s="6">
         <v>44892</v>
       </c>
-      <c r="BP23" s="7">
+      <c r="BP23" s="6">
         <v>44283</v>
       </c>
-      <c r="BQ23" s="7">
+      <c r="BQ23" s="6">
         <v>45471</v>
       </c>
       <c r="BR23" s="4" t="s">
@@ -8940,37 +8937,37 @@
       <c r="F24" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>45150</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>43853</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>43853</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>43853</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>44600</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>45451</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <v>45539</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <v>44487</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="6">
         <v>45398</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="6">
         <v>44493</v>
       </c>
       <c r="R24" s="5"/>
@@ -9039,10 +9036,10 @@
       <c r="AO24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP24" s="7">
+      <c r="AP24" s="6">
         <v>44986</v>
       </c>
-      <c r="AQ24" s="7">
+      <c r="AQ24" s="6">
         <v>43884</v>
       </c>
       <c r="AR24" s="4" t="s">
@@ -9092,31 +9089,31 @@
       <c r="BH24" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI24" s="7">
+      <c r="BI24" s="6">
         <v>44459</v>
       </c>
-      <c r="BJ24" s="7">
+      <c r="BJ24" s="6">
         <v>45170</v>
       </c>
-      <c r="BK24" s="7">
+      <c r="BK24" s="6">
         <v>45008</v>
       </c>
       <c r="BL24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM24" s="7">
+      <c r="BM24" s="6">
         <v>43938</v>
       </c>
-      <c r="BN24" s="7">
+      <c r="BN24" s="6">
         <v>45245</v>
       </c>
-      <c r="BO24" s="7">
+      <c r="BO24" s="6">
         <v>44975</v>
       </c>
-      <c r="BP24" s="7">
+      <c r="BP24" s="6">
         <v>44046</v>
       </c>
-      <c r="BQ24" s="7">
+      <c r="BQ24" s="6">
         <v>44065</v>
       </c>
       <c r="BR24" s="4" t="s">
@@ -9148,37 +9145,37 @@
       <c r="F25" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>43913</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>44572</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>44572</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>44572</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <v>45288</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>43921</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <v>44496</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="6">
         <v>44787</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="6">
         <v>43898</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="6">
         <v>45004</v>
       </c>
       <c r="R25" s="5"/>
@@ -9247,10 +9244,10 @@
       <c r="AO25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP25" s="7">
+      <c r="AP25" s="6">
         <v>44600</v>
       </c>
-      <c r="AQ25" s="7">
+      <c r="AQ25" s="6">
         <v>44438</v>
       </c>
       <c r="AR25" s="4" t="s">
@@ -9300,31 +9297,31 @@
       <c r="BH25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI25" s="7">
+      <c r="BI25" s="6">
         <v>43909</v>
       </c>
-      <c r="BJ25" s="7">
+      <c r="BJ25" s="6">
         <v>45060</v>
       </c>
-      <c r="BK25" s="7">
+      <c r="BK25" s="6">
         <v>45445</v>
       </c>
       <c r="BL25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM25" s="7">
+      <c r="BM25" s="6">
         <v>45267</v>
       </c>
-      <c r="BN25" s="7">
+      <c r="BN25" s="6">
         <v>45186</v>
       </c>
-      <c r="BO25" s="7">
+      <c r="BO25" s="6">
         <v>45228</v>
       </c>
-      <c r="BP25" s="7">
+      <c r="BP25" s="6">
         <v>44289</v>
       </c>
-      <c r="BQ25" s="7">
+      <c r="BQ25" s="6">
         <v>44324</v>
       </c>
       <c r="BR25" s="4" t="s">
@@ -9356,37 +9353,37 @@
       <c r="F26" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>44296</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>44000</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>44000</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>44000</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <v>45519</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>45512</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>45534</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="6">
         <v>44175</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="6">
         <v>44074</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="6">
         <v>44341</v>
       </c>
       <c r="R26" s="5"/>
@@ -9455,10 +9452,10 @@
       <c r="AO26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP26" s="7">
+      <c r="AP26" s="6">
         <v>44446</v>
       </c>
-      <c r="AQ26" s="7">
+      <c r="AQ26" s="6">
         <v>45462</v>
       </c>
       <c r="AR26" s="4" t="s">
@@ -9508,31 +9505,31 @@
       <c r="BH26" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI26" s="7">
+      <c r="BI26" s="6">
         <v>44908</v>
       </c>
-      <c r="BJ26" s="7">
+      <c r="BJ26" s="6">
         <v>44469</v>
       </c>
-      <c r="BK26" s="7">
+      <c r="BK26" s="6">
         <v>44040</v>
       </c>
       <c r="BL26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM26" s="7">
+      <c r="BM26" s="6">
         <v>44912</v>
       </c>
-      <c r="BN26" s="7">
+      <c r="BN26" s="6">
         <v>45584</v>
       </c>
-      <c r="BO26" s="7">
+      <c r="BO26" s="6">
         <v>44548</v>
       </c>
-      <c r="BP26" s="7">
+      <c r="BP26" s="6">
         <v>45270</v>
       </c>
-      <c r="BQ26" s="7">
+      <c r="BQ26" s="6">
         <v>44735</v>
       </c>
       <c r="BR26" s="4" t="s">
@@ -9564,37 +9561,37 @@
       <c r="F27" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>43925</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>44535</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>44535</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <v>44535</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <v>45409</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>45467</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>45068</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <v>44246</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="6">
         <v>44499</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="6">
         <v>43918</v>
       </c>
       <c r="R27" s="5"/>
@@ -9663,10 +9660,10 @@
       <c r="AO27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP27" s="7">
+      <c r="AP27" s="6">
         <v>43863</v>
       </c>
-      <c r="AQ27" s="7">
+      <c r="AQ27" s="6">
         <v>45164</v>
       </c>
       <c r="AR27" s="4" t="s">
@@ -9716,31 +9713,31 @@
       <c r="BH27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI27" s="7">
+      <c r="BI27" s="6">
         <v>44514</v>
       </c>
-      <c r="BJ27" s="7">
+      <c r="BJ27" s="6">
         <v>45071</v>
       </c>
-      <c r="BK27" s="7">
+      <c r="BK27" s="6">
         <v>44694</v>
       </c>
       <c r="BL27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM27" s="7">
+      <c r="BM27" s="6">
         <v>44601</v>
       </c>
-      <c r="BN27" s="7">
+      <c r="BN27" s="6">
         <v>44348</v>
       </c>
-      <c r="BO27" s="7">
+      <c r="BO27" s="6">
         <v>44338</v>
       </c>
-      <c r="BP27" s="7">
+      <c r="BP27" s="6">
         <v>44295</v>
       </c>
-      <c r="BQ27" s="7">
+      <c r="BQ27" s="6">
         <v>44571</v>
       </c>
       <c r="BR27" s="4" t="s">
@@ -9772,37 +9769,37 @@
       <c r="F28" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>44770</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>44851</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>44851</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <v>44851</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <v>43866</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>45140</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <v>43857</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="6">
         <v>44699</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="6">
         <v>43856</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="6">
         <v>44773</v>
       </c>
       <c r="R28" s="5"/>
@@ -9871,10 +9868,10 @@
       <c r="AO28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP28" s="7">
+      <c r="AP28" s="6">
         <v>44814</v>
       </c>
-      <c r="AQ28" s="7">
+      <c r="AQ28" s="6">
         <v>44705</v>
       </c>
       <c r="AR28" s="4" t="s">
@@ -9924,31 +9921,31 @@
       <c r="BH28" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI28" s="7">
+      <c r="BI28" s="6">
         <v>45448</v>
       </c>
-      <c r="BJ28" s="7">
+      <c r="BJ28" s="6">
         <v>44134</v>
       </c>
-      <c r="BK28" s="7">
+      <c r="BK28" s="6">
         <v>45519</v>
       </c>
       <c r="BL28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM28" s="7">
+      <c r="BM28" s="6">
         <v>45045</v>
       </c>
-      <c r="BN28" s="7">
+      <c r="BN28" s="6">
         <v>44809</v>
       </c>
-      <c r="BO28" s="7">
+      <c r="BO28" s="6">
         <v>44218</v>
       </c>
-      <c r="BP28" s="7">
+      <c r="BP28" s="6">
         <v>44129</v>
       </c>
-      <c r="BQ28" s="7">
+      <c r="BQ28" s="6">
         <v>44253</v>
       </c>
       <c r="BR28" s="4" t="s">
@@ -9980,37 +9977,37 @@
       <c r="F29" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>44445</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>45216</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>45216</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>45216</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>44885</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>45347</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>44668</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <v>45544</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="6">
         <v>43946</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="6">
         <v>44082</v>
       </c>
       <c r="R29" s="5"/>
@@ -10079,10 +10076,10 @@
       <c r="AO29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP29" s="7">
+      <c r="AP29" s="6">
         <v>45494</v>
       </c>
-      <c r="AQ29" s="7">
+      <c r="AQ29" s="6">
         <v>45068</v>
       </c>
       <c r="AR29" s="4" t="s">
@@ -10132,31 +10129,31 @@
       <c r="BH29" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI29" s="7">
+      <c r="BI29" s="6">
         <v>43895</v>
       </c>
-      <c r="BJ29" s="7">
+      <c r="BJ29" s="6">
         <v>45442</v>
       </c>
-      <c r="BK29" s="7">
+      <c r="BK29" s="6">
         <v>45019</v>
       </c>
       <c r="BL29" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM29" s="7">
+      <c r="BM29" s="6">
         <v>45292</v>
       </c>
-      <c r="BN29" s="7">
+      <c r="BN29" s="6">
         <v>44778</v>
       </c>
-      <c r="BO29" s="7">
+      <c r="BO29" s="6">
         <v>44074</v>
       </c>
-      <c r="BP29" s="7">
+      <c r="BP29" s="6">
         <v>45106</v>
       </c>
-      <c r="BQ29" s="7">
+      <c r="BQ29" s="6">
         <v>44204</v>
       </c>
       <c r="BR29" s="4" t="s">
@@ -10188,37 +10185,37 @@
       <c r="F30" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>45493</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>44196</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>44196</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <v>44196</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <v>43922</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>44784</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <v>44599</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="6">
         <v>44454</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="6">
         <v>45239</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="6">
         <v>45589</v>
       </c>
       <c r="R30" s="5"/>
@@ -10287,10 +10284,10 @@
       <c r="AO30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP30" s="7">
+      <c r="AP30" s="6">
         <v>45356</v>
       </c>
-      <c r="AQ30" s="7">
+      <c r="AQ30" s="6">
         <v>45384</v>
       </c>
       <c r="AR30" s="4" t="s">
@@ -10340,31 +10337,31 @@
       <c r="BH30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI30" s="7">
+      <c r="BI30" s="6">
         <v>44487</v>
       </c>
-      <c r="BJ30" s="7">
+      <c r="BJ30" s="6">
         <v>43872</v>
       </c>
-      <c r="BK30" s="7">
+      <c r="BK30" s="6">
         <v>45174</v>
       </c>
       <c r="BL30" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM30" s="7">
+      <c r="BM30" s="6">
         <v>44169</v>
       </c>
-      <c r="BN30" s="7">
+      <c r="BN30" s="6">
         <v>45090</v>
       </c>
-      <c r="BO30" s="7">
+      <c r="BO30" s="6">
         <v>44454</v>
       </c>
-      <c r="BP30" s="7">
+      <c r="BP30" s="6">
         <v>43983</v>
       </c>
-      <c r="BQ30" s="7">
+      <c r="BQ30" s="6">
         <v>43977</v>
       </c>
       <c r="BR30" s="4" t="s">
@@ -10396,37 +10393,37 @@
       <c r="F31" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>44097</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>43946</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>43946</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <v>43946</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <v>43995</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <v>44671</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <v>45119</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <v>44734</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="6">
         <v>44139</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="6">
         <v>44842</v>
       </c>
       <c r="R31" s="5"/>
@@ -10495,10 +10492,10 @@
       <c r="AO31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP31" s="7">
+      <c r="AP31" s="6">
         <v>44893</v>
       </c>
-      <c r="AQ31" s="7">
+      <c r="AQ31" s="6">
         <v>44560</v>
       </c>
       <c r="AR31" s="4" t="s">
@@ -10548,31 +10545,31 @@
       <c r="BH31" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI31" s="7">
+      <c r="BI31" s="6">
         <v>44093</v>
       </c>
-      <c r="BJ31" s="7">
+      <c r="BJ31" s="6">
         <v>44231</v>
       </c>
-      <c r="BK31" s="7">
+      <c r="BK31" s="6">
         <v>44025</v>
       </c>
       <c r="BL31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM31" s="7">
+      <c r="BM31" s="6">
         <v>43926</v>
       </c>
-      <c r="BN31" s="7">
+      <c r="BN31" s="6">
         <v>44859</v>
       </c>
-      <c r="BO31" s="7">
+      <c r="BO31" s="6">
         <v>45331</v>
       </c>
-      <c r="BP31" s="7">
+      <c r="BP31" s="6">
         <v>43984</v>
       </c>
-      <c r="BQ31" s="7">
+      <c r="BQ31" s="6">
         <v>44356</v>
       </c>
       <c r="BR31" s="4" t="s">
@@ -10604,37 +10601,37 @@
       <c r="F32" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>44484</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>44946</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>44946</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <v>44946</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <v>44775</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <v>44526</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <v>45029</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="6">
         <v>44080</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="6">
         <v>44136</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="6">
         <v>44951</v>
       </c>
       <c r="R32" s="5"/>
@@ -10703,10 +10700,10 @@
       <c r="AO32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP32" s="7">
+      <c r="AP32" s="6">
         <v>44347</v>
       </c>
-      <c r="AQ32" s="7">
+      <c r="AQ32" s="6">
         <v>43903</v>
       </c>
       <c r="AR32" s="4" t="s">
@@ -10756,31 +10753,31 @@
       <c r="BH32" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI32" s="7">
+      <c r="BI32" s="6">
         <v>45313</v>
       </c>
-      <c r="BJ32" s="7">
+      <c r="BJ32" s="6">
         <v>44800</v>
       </c>
-      <c r="BK32" s="7">
+      <c r="BK32" s="6">
         <v>44527</v>
       </c>
       <c r="BL32" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM32" s="7">
+      <c r="BM32" s="6">
         <v>44479</v>
       </c>
-      <c r="BN32" s="7">
+      <c r="BN32" s="6">
         <v>44025</v>
       </c>
-      <c r="BO32" s="7">
+      <c r="BO32" s="6">
         <v>44422</v>
       </c>
-      <c r="BP32" s="7">
+      <c r="BP32" s="6">
         <v>43919</v>
       </c>
-      <c r="BQ32" s="7">
+      <c r="BQ32" s="6">
         <v>44249</v>
       </c>
       <c r="BR32" s="4" t="s">
@@ -10812,37 +10809,37 @@
       <c r="F33" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>44878</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>45161</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>45161</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <v>45161</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <v>45246</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>44854</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <v>45061</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
         <v>44662</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="6">
         <v>43865</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="6">
         <v>44856</v>
       </c>
       <c r="R33" s="5"/>
@@ -10911,10 +10908,10 @@
       <c r="AO33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP33" s="7">
+      <c r="AP33" s="6">
         <v>44772</v>
       </c>
-      <c r="AQ33" s="7">
+      <c r="AQ33" s="6">
         <v>44974</v>
       </c>
       <c r="AR33" s="4" t="s">
@@ -10964,31 +10961,31 @@
       <c r="BH33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI33" s="7">
+      <c r="BI33" s="6">
         <v>45042</v>
       </c>
-      <c r="BJ33" s="7">
+      <c r="BJ33" s="6">
         <v>45305</v>
       </c>
-      <c r="BK33" s="7">
+      <c r="BK33" s="6">
         <v>45573</v>
       </c>
       <c r="BL33" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM33" s="7">
+      <c r="BM33" s="6">
         <v>44956</v>
       </c>
-      <c r="BN33" s="7">
+      <c r="BN33" s="6">
         <v>44789</v>
       </c>
-      <c r="BO33" s="7">
+      <c r="BO33" s="6">
         <v>44419</v>
       </c>
-      <c r="BP33" s="7">
+      <c r="BP33" s="6">
         <v>44300</v>
       </c>
-      <c r="BQ33" s="7">
+      <c r="BQ33" s="6">
         <v>44209</v>
       </c>
       <c r="BR33" s="4" t="s">
@@ -11020,37 +11017,37 @@
       <c r="F34" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>44770</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>45038</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>45038</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <v>45038</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <v>45165</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>45188</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <v>45274</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="6">
         <v>44075</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="6">
         <v>43970</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="6">
         <v>44597</v>
       </c>
       <c r="R34" s="5"/>
@@ -11119,10 +11116,10 @@
       <c r="AO34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP34" s="7">
+      <c r="AP34" s="6">
         <v>44091</v>
       </c>
-      <c r="AQ34" s="7">
+      <c r="AQ34" s="6">
         <v>44189</v>
       </c>
       <c r="AR34" s="4" t="s">
@@ -11172,31 +11169,31 @@
       <c r="BH34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI34" s="7">
+      <c r="BI34" s="6">
         <v>45508</v>
       </c>
-      <c r="BJ34" s="7">
+      <c r="BJ34" s="6">
         <v>44601</v>
       </c>
-      <c r="BK34" s="7">
+      <c r="BK34" s="6">
         <v>44672</v>
       </c>
       <c r="BL34" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM34" s="7">
+      <c r="BM34" s="6">
         <v>45068</v>
       </c>
-      <c r="BN34" s="7">
+      <c r="BN34" s="6">
         <v>44329</v>
       </c>
-      <c r="BO34" s="7">
+      <c r="BO34" s="6">
         <v>44599</v>
       </c>
-      <c r="BP34" s="7">
+      <c r="BP34" s="6">
         <v>44164</v>
       </c>
-      <c r="BQ34" s="7">
+      <c r="BQ34" s="6">
         <v>45341</v>
       </c>
       <c r="BR34" s="4" t="s">
@@ -11228,37 +11225,37 @@
       <c r="F35" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>44698</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>43865</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>43865</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <v>43865</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <v>44576</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="6">
         <v>45438</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <v>45201</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="6">
         <v>44195</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="6">
         <v>44932</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="6">
         <v>44987</v>
       </c>
       <c r="R35" s="5"/>
@@ -11327,10 +11324,10 @@
       <c r="AO35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP35" s="7">
+      <c r="AP35" s="6">
         <v>44049</v>
       </c>
-      <c r="AQ35" s="7">
+      <c r="AQ35" s="6">
         <v>44562</v>
       </c>
       <c r="AR35" s="4" t="s">
@@ -11380,31 +11377,31 @@
       <c r="BH35" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI35" s="7">
+      <c r="BI35" s="6">
         <v>44211</v>
       </c>
-      <c r="BJ35" s="7">
+      <c r="BJ35" s="6">
         <v>45241</v>
       </c>
-      <c r="BK35" s="7">
+      <c r="BK35" s="6">
         <v>44818</v>
       </c>
       <c r="BL35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM35" s="7">
+      <c r="BM35" s="6">
         <v>44725</v>
       </c>
-      <c r="BN35" s="7">
+      <c r="BN35" s="6">
         <v>44562</v>
       </c>
-      <c r="BO35" s="7">
+      <c r="BO35" s="6">
         <v>44988</v>
       </c>
-      <c r="BP35" s="7">
+      <c r="BP35" s="6">
         <v>45599</v>
       </c>
-      <c r="BQ35" s="7">
+      <c r="BQ35" s="6">
         <v>44214</v>
       </c>
       <c r="BR35" s="4" t="s">
@@ -11436,37 +11433,37 @@
       <c r="F36" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>44133</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>44225</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>44225</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <v>44225</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <v>44960</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="6">
         <v>44360</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="6">
         <v>45326</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="6">
         <v>45355</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="6">
         <v>45354</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="6">
         <v>44494</v>
       </c>
       <c r="R36" s="5"/>
@@ -11535,10 +11532,10 @@
       <c r="AO36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP36" s="7">
+      <c r="AP36" s="6">
         <v>44149</v>
       </c>
-      <c r="AQ36" s="7">
+      <c r="AQ36" s="6">
         <v>45442</v>
       </c>
       <c r="AR36" s="4" t="s">
@@ -11588,31 +11585,31 @@
       <c r="BH36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI36" s="7">
+      <c r="BI36" s="6">
         <v>45312</v>
       </c>
-      <c r="BJ36" s="7">
+      <c r="BJ36" s="6">
         <v>44869</v>
       </c>
-      <c r="BK36" s="7">
+      <c r="BK36" s="6">
         <v>44648</v>
       </c>
       <c r="BL36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM36" s="7">
+      <c r="BM36" s="6">
         <v>44933</v>
       </c>
-      <c r="BN36" s="7">
+      <c r="BN36" s="6">
         <v>44602</v>
       </c>
-      <c r="BO36" s="7">
+      <c r="BO36" s="6">
         <v>44488</v>
       </c>
-      <c r="BP36" s="7">
+      <c r="BP36" s="6">
         <v>44259</v>
       </c>
-      <c r="BQ36" s="7">
+      <c r="BQ36" s="6">
         <v>44836</v>
       </c>
       <c r="BR36" s="4" t="s">
@@ -11644,37 +11641,37 @@
       <c r="F37" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>45110</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>45388</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>45388</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <v>45388</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <v>44486</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>44448</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <v>45595</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="6">
         <v>44951</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="6">
         <v>43840</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="6">
         <v>43913</v>
       </c>
       <c r="R37" s="5"/>
@@ -11743,10 +11740,10 @@
       <c r="AO37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP37" s="7">
+      <c r="AP37" s="6">
         <v>45304</v>
       </c>
-      <c r="AQ37" s="7">
+      <c r="AQ37" s="6">
         <v>43986</v>
       </c>
       <c r="AR37" s="4" t="s">
@@ -11796,31 +11793,31 @@
       <c r="BH37" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI37" s="7">
+      <c r="BI37" s="6">
         <v>45110</v>
       </c>
-      <c r="BJ37" s="7">
+      <c r="BJ37" s="6">
         <v>45151</v>
       </c>
-      <c r="BK37" s="7">
+      <c r="BK37" s="6">
         <v>44515</v>
       </c>
       <c r="BL37" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM37" s="7">
+      <c r="BM37" s="6">
         <v>45190</v>
       </c>
-      <c r="BN37" s="7">
+      <c r="BN37" s="6">
         <v>44426</v>
       </c>
-      <c r="BO37" s="7">
+      <c r="BO37" s="6">
         <v>45461</v>
       </c>
-      <c r="BP37" s="7">
+      <c r="BP37" s="6">
         <v>43928</v>
       </c>
-      <c r="BQ37" s="7">
+      <c r="BQ37" s="6">
         <v>45474</v>
       </c>
       <c r="BR37" s="4" t="s">
@@ -11852,37 +11849,37 @@
       <c r="F38" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>44480</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>44911</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <v>44911</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <v>44911</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <v>44614</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <v>44823</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <v>45126</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="6">
         <v>45333</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="6">
         <v>44461</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="6">
         <v>45220</v>
       </c>
       <c r="R38" s="5"/>
@@ -11951,10 +11948,10 @@
       <c r="AO38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP38" s="7">
+      <c r="AP38" s="6">
         <v>44391</v>
       </c>
-      <c r="AQ38" s="7">
+      <c r="AQ38" s="6">
         <v>43969</v>
       </c>
       <c r="AR38" s="4" t="s">
@@ -12004,31 +12001,31 @@
       <c r="BH38" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI38" s="7">
+      <c r="BI38" s="6">
         <v>45027</v>
       </c>
-      <c r="BJ38" s="7">
+      <c r="BJ38" s="6">
         <v>44559</v>
       </c>
-      <c r="BK38" s="7">
+      <c r="BK38" s="6">
         <v>44731</v>
       </c>
       <c r="BL38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM38" s="7">
+      <c r="BM38" s="6">
         <v>45257</v>
       </c>
-      <c r="BN38" s="7">
+      <c r="BN38" s="6">
         <v>45583</v>
       </c>
-      <c r="BO38" s="7">
+      <c r="BO38" s="6">
         <v>43907</v>
       </c>
-      <c r="BP38" s="7">
+      <c r="BP38" s="6">
         <v>44453</v>
       </c>
-      <c r="BQ38" s="7">
+      <c r="BQ38" s="6">
         <v>44935</v>
       </c>
       <c r="BR38" s="4" t="s">
@@ -12060,37 +12057,37 @@
       <c r="F39" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>43974</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>44299</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>44299</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <v>44299</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <v>45507</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="6">
         <v>44491</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <v>43859</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="6">
         <v>44774</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="6">
         <v>44233</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="6">
         <v>44089</v>
       </c>
       <c r="R39" s="5"/>
@@ -12159,10 +12156,10 @@
       <c r="AO39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP39" s="7">
+      <c r="AP39" s="6">
         <v>45148</v>
       </c>
-      <c r="AQ39" s="7">
+      <c r="AQ39" s="6">
         <v>43931</v>
       </c>
       <c r="AR39" s="4" t="s">
@@ -12212,31 +12209,31 @@
       <c r="BH39" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI39" s="7">
+      <c r="BI39" s="6">
         <v>45110</v>
       </c>
-      <c r="BJ39" s="7">
+      <c r="BJ39" s="6">
         <v>44123</v>
       </c>
-      <c r="BK39" s="7">
+      <c r="BK39" s="6">
         <v>45173</v>
       </c>
       <c r="BL39" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM39" s="7">
+      <c r="BM39" s="6">
         <v>44333</v>
       </c>
-      <c r="BN39" s="7">
+      <c r="BN39" s="6">
         <v>43849</v>
       </c>
-      <c r="BO39" s="7">
+      <c r="BO39" s="6">
         <v>45241</v>
       </c>
-      <c r="BP39" s="7">
+      <c r="BP39" s="6">
         <v>45036</v>
       </c>
-      <c r="BQ39" s="7">
+      <c r="BQ39" s="6">
         <v>44222</v>
       </c>
       <c r="BR39" s="4" t="s">
@@ -12268,37 +12265,37 @@
       <c r="F40" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>43909</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>44248</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <v>44248</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <v>44248</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <v>44156</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="6">
         <v>45169</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="6">
         <v>44187</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="6">
         <v>44095</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="6">
         <v>44892</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="6">
         <v>44356</v>
       </c>
       <c r="R40" s="5"/>
@@ -12367,10 +12364,10 @@
       <c r="AO40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP40" s="7">
+      <c r="AP40" s="6">
         <v>44988</v>
       </c>
-      <c r="AQ40" s="7">
+      <c r="AQ40" s="6">
         <v>45556</v>
       </c>
       <c r="AR40" s="4" t="s">
@@ -12420,31 +12417,31 @@
       <c r="BH40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI40" s="7">
+      <c r="BI40" s="6">
         <v>44251</v>
       </c>
-      <c r="BJ40" s="7">
+      <c r="BJ40" s="6">
         <v>44235</v>
       </c>
-      <c r="BK40" s="7">
+      <c r="BK40" s="6">
         <v>44142</v>
       </c>
       <c r="BL40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM40" s="7">
+      <c r="BM40" s="6">
         <v>44532</v>
       </c>
-      <c r="BN40" s="7">
+      <c r="BN40" s="6">
         <v>44715</v>
       </c>
-      <c r="BO40" s="7">
+      <c r="BO40" s="6">
         <v>45414</v>
       </c>
-      <c r="BP40" s="7">
+      <c r="BP40" s="6">
         <v>45184</v>
       </c>
-      <c r="BQ40" s="7">
+      <c r="BQ40" s="6">
         <v>44939</v>
       </c>
       <c r="BR40" s="4" t="s">
@@ -12476,37 +12473,37 @@
       <c r="F41" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>44601</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>44524</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <v>44524</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <v>44524</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <v>43932</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="6">
         <v>44526</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="6">
         <v>45467</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="6">
         <v>44174</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="6">
         <v>44308</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="6">
         <v>44699</v>
       </c>
       <c r="R41" s="5"/>
@@ -12575,10 +12572,10 @@
       <c r="AO41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP41" s="7">
+      <c r="AP41" s="6">
         <v>44497</v>
       </c>
-      <c r="AQ41" s="7">
+      <c r="AQ41" s="6">
         <v>44322</v>
       </c>
       <c r="AR41" s="4" t="s">
@@ -12628,31 +12625,31 @@
       <c r="BH41" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI41" s="7">
+      <c r="BI41" s="6">
         <v>44485</v>
       </c>
-      <c r="BJ41" s="7">
+      <c r="BJ41" s="6">
         <v>45458</v>
       </c>
-      <c r="BK41" s="7">
+      <c r="BK41" s="6">
         <v>45460</v>
       </c>
       <c r="BL41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM41" s="7">
+      <c r="BM41" s="6">
         <v>44042</v>
       </c>
-      <c r="BN41" s="7">
+      <c r="BN41" s="6">
         <v>45101</v>
       </c>
-      <c r="BO41" s="7">
+      <c r="BO41" s="6">
         <v>44383</v>
       </c>
-      <c r="BP41" s="7">
+      <c r="BP41" s="6">
         <v>45441</v>
       </c>
-      <c r="BQ41" s="7">
+      <c r="BQ41" s="6">
         <v>44292</v>
       </c>
       <c r="BR41" s="4" t="s">
@@ -12684,37 +12681,37 @@
       <c r="F42" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>44049</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>44247</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>44247</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <v>44247</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <v>45518</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="6">
         <v>44248</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="6">
         <v>43868</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="6">
         <v>45500</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="6">
         <v>45165</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="6">
         <v>45518</v>
       </c>
       <c r="R42" s="5"/>
@@ -12783,10 +12780,10 @@
       <c r="AO42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP42" s="7">
+      <c r="AP42" s="6">
         <v>44591</v>
       </c>
-      <c r="AQ42" s="7">
+      <c r="AQ42" s="6">
         <v>45445</v>
       </c>
       <c r="AR42" s="4" t="s">
@@ -12836,31 +12833,31 @@
       <c r="BH42" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI42" s="7">
+      <c r="BI42" s="6">
         <v>44481</v>
       </c>
-      <c r="BJ42" s="7">
+      <c r="BJ42" s="6">
         <v>43860</v>
       </c>
-      <c r="BK42" s="7">
+      <c r="BK42" s="6">
         <v>44727</v>
       </c>
       <c r="BL42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM42" s="7">
+      <c r="BM42" s="6">
         <v>44460</v>
       </c>
-      <c r="BN42" s="7">
+      <c r="BN42" s="6">
         <v>45162</v>
       </c>
-      <c r="BO42" s="7">
+      <c r="BO42" s="6">
         <v>44674</v>
       </c>
-      <c r="BP42" s="7">
+      <c r="BP42" s="6">
         <v>44588</v>
       </c>
-      <c r="BQ42" s="7">
+      <c r="BQ42" s="6">
         <v>44296</v>
       </c>
       <c r="BR42" s="4" t="s">
@@ -12892,37 +12889,37 @@
       <c r="F43" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <v>44856</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>45151</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <v>45151</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <v>45151</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <v>44957</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <v>44899</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="6">
         <v>45144</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="6">
         <v>44904</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="6">
         <v>44616</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="6">
         <v>44188</v>
       </c>
       <c r="R43" s="5"/>
@@ -12991,10 +12988,10 @@
       <c r="AO43" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP43" s="7">
+      <c r="AP43" s="6">
         <v>44374</v>
       </c>
-      <c r="AQ43" s="7">
+      <c r="AQ43" s="6">
         <v>45165</v>
       </c>
       <c r="AR43" s="4" t="s">
@@ -13044,31 +13041,31 @@
       <c r="BH43" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI43" s="7">
+      <c r="BI43" s="6">
         <v>43858</v>
       </c>
-      <c r="BJ43" s="7">
+      <c r="BJ43" s="6">
         <v>45430</v>
       </c>
-      <c r="BK43" s="7">
+      <c r="BK43" s="6">
         <v>43937</v>
       </c>
       <c r="BL43" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM43" s="7">
+      <c r="BM43" s="6">
         <v>44650</v>
       </c>
-      <c r="BN43" s="7">
+      <c r="BN43" s="6">
         <v>44906</v>
       </c>
-      <c r="BO43" s="7">
+      <c r="BO43" s="6">
         <v>45300</v>
       </c>
-      <c r="BP43" s="7">
+      <c r="BP43" s="6">
         <v>44898</v>
       </c>
-      <c r="BQ43" s="7">
+      <c r="BQ43" s="6">
         <v>45364</v>
       </c>
       <c r="BR43" s="4" t="s">
@@ -13100,37 +13097,37 @@
       <c r="F44" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>44294</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>44034</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <v>44034</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="6">
         <v>44034</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="6">
         <v>45123</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="6">
         <v>45383</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="6">
         <v>44245</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="6">
         <v>44275</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="6">
         <v>45087</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="6">
         <v>44254</v>
       </c>
       <c r="R44" s="5"/>
@@ -13199,10 +13196,10 @@
       <c r="AO44" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP44" s="7">
+      <c r="AP44" s="6">
         <v>45268</v>
       </c>
-      <c r="AQ44" s="7">
+      <c r="AQ44" s="6">
         <v>45574</v>
       </c>
       <c r="AR44" s="4" t="s">
@@ -13252,31 +13249,31 @@
       <c r="BH44" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI44" s="7">
+      <c r="BI44" s="6">
         <v>43918</v>
       </c>
-      <c r="BJ44" s="7">
+      <c r="BJ44" s="6">
         <v>45406</v>
       </c>
-      <c r="BK44" s="7">
+      <c r="BK44" s="6">
         <v>44707</v>
       </c>
       <c r="BL44" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM44" s="7">
+      <c r="BM44" s="6">
         <v>45171</v>
       </c>
-      <c r="BN44" s="7">
+      <c r="BN44" s="6">
         <v>44095</v>
       </c>
-      <c r="BO44" s="7">
+      <c r="BO44" s="6">
         <v>44234</v>
       </c>
-      <c r="BP44" s="7">
+      <c r="BP44" s="6">
         <v>45160</v>
       </c>
-      <c r="BQ44" s="7">
+      <c r="BQ44" s="6">
         <v>45565</v>
       </c>
       <c r="BR44" s="4" t="s">
@@ -13308,37 +13305,37 @@
       <c r="F45" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <v>45280</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>45549</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <v>45549</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <v>45549</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <v>43884</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <v>44680</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <v>44582</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <v>45123</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="6">
         <v>44033</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="6">
         <v>45331</v>
       </c>
       <c r="R45" s="5"/>
@@ -13407,10 +13404,10 @@
       <c r="AO45" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP45" s="7">
+      <c r="AP45" s="6">
         <v>45391</v>
       </c>
-      <c r="AQ45" s="7">
+      <c r="AQ45" s="6">
         <v>44897</v>
       </c>
       <c r="AR45" s="4" t="s">
@@ -13460,31 +13457,31 @@
       <c r="BH45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI45" s="7">
+      <c r="BI45" s="6">
         <v>43951</v>
       </c>
-      <c r="BJ45" s="7">
+      <c r="BJ45" s="6">
         <v>43992</v>
       </c>
-      <c r="BK45" s="7">
+      <c r="BK45" s="6">
         <v>44165</v>
       </c>
       <c r="BL45" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM45" s="7">
+      <c r="BM45" s="6">
         <v>44132</v>
       </c>
-      <c r="BN45" s="7">
+      <c r="BN45" s="6">
         <v>44018</v>
       </c>
-      <c r="BO45" s="7">
+      <c r="BO45" s="6">
         <v>45041</v>
       </c>
-      <c r="BP45" s="7">
+      <c r="BP45" s="6">
         <v>44647</v>
       </c>
-      <c r="BQ45" s="7">
+      <c r="BQ45" s="6">
         <v>45022</v>
       </c>
       <c r="BR45" s="4" t="s">
@@ -13516,37 +13513,37 @@
       <c r="F46" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>45466</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>44624</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <v>44624</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="6">
         <v>44624</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="6">
         <v>45277</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="6">
         <v>44170</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="6">
         <v>44164</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="6">
         <v>44343</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="6">
         <v>44331</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="6">
         <v>44514</v>
       </c>
       <c r="R46" s="5"/>
@@ -13615,10 +13612,10 @@
       <c r="AO46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP46" s="7">
+      <c r="AP46" s="6">
         <v>43936</v>
       </c>
-      <c r="AQ46" s="7">
+      <c r="AQ46" s="6">
         <v>43962</v>
       </c>
       <c r="AR46" s="4" t="s">
@@ -13668,31 +13665,31 @@
       <c r="BH46" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI46" s="7">
+      <c r="BI46" s="6">
         <v>45589</v>
       </c>
-      <c r="BJ46" s="7">
+      <c r="BJ46" s="6">
         <v>45427</v>
       </c>
-      <c r="BK46" s="7">
+      <c r="BK46" s="6">
         <v>44718</v>
       </c>
       <c r="BL46" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM46" s="7">
+      <c r="BM46" s="6">
         <v>44242</v>
       </c>
-      <c r="BN46" s="7">
+      <c r="BN46" s="6">
         <v>44399</v>
       </c>
-      <c r="BO46" s="7">
+      <c r="BO46" s="6">
         <v>44350</v>
       </c>
-      <c r="BP46" s="7">
+      <c r="BP46" s="6">
         <v>45340</v>
       </c>
-      <c r="BQ46" s="7">
+      <c r="BQ46" s="6">
         <v>44249</v>
       </c>
       <c r="BR46" s="4" t="s">
@@ -13724,37 +13721,37 @@
       <c r="F47" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <v>44793</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>44030</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <v>44030</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <v>44030</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="6">
         <v>44200</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="6">
         <v>45581</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="6">
         <v>44009</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="6">
         <v>44248</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="6">
         <v>45361</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="6">
         <v>44813</v>
       </c>
       <c r="R47" s="5"/>
@@ -13823,10 +13820,10 @@
       <c r="AO47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP47" s="7">
+      <c r="AP47" s="6">
         <v>43857</v>
       </c>
-      <c r="AQ47" s="7">
+      <c r="AQ47" s="6">
         <v>44219</v>
       </c>
       <c r="AR47" s="4" t="s">
@@ -13876,31 +13873,31 @@
       <c r="BH47" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI47" s="7">
+      <c r="BI47" s="6">
         <v>43986</v>
       </c>
-      <c r="BJ47" s="7">
+      <c r="BJ47" s="6">
         <v>44831</v>
       </c>
-      <c r="BK47" s="7">
+      <c r="BK47" s="6">
         <v>45237</v>
       </c>
       <c r="BL47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM47" s="7">
+      <c r="BM47" s="6">
         <v>44421</v>
       </c>
-      <c r="BN47" s="7">
+      <c r="BN47" s="6">
         <v>44567</v>
       </c>
-      <c r="BO47" s="7">
+      <c r="BO47" s="6">
         <v>45566</v>
       </c>
-      <c r="BP47" s="7">
+      <c r="BP47" s="6">
         <v>45333</v>
       </c>
-      <c r="BQ47" s="7">
+      <c r="BQ47" s="6">
         <v>44489</v>
       </c>
       <c r="BR47" s="4" t="s">
@@ -13932,37 +13929,37 @@
       <c r="F48" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <v>45539</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <v>44421</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <v>44421</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <v>44421</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="6">
         <v>44982</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="6">
         <v>45500</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="6">
         <v>45382</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="6">
         <v>44007</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="6">
         <v>44007</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="6">
         <v>44168</v>
       </c>
       <c r="R48" s="5"/>
@@ -14031,10 +14028,10 @@
       <c r="AO48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP48" s="7">
+      <c r="AP48" s="6">
         <v>44678</v>
       </c>
-      <c r="AQ48" s="7">
+      <c r="AQ48" s="6">
         <v>45214</v>
       </c>
       <c r="AR48" s="4" t="s">
@@ -14084,31 +14081,31 @@
       <c r="BH48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI48" s="7">
+      <c r="BI48" s="6">
         <v>45512</v>
       </c>
-      <c r="BJ48" s="7">
+      <c r="BJ48" s="6">
         <v>44046</v>
       </c>
-      <c r="BK48" s="7">
+      <c r="BK48" s="6">
         <v>43892</v>
       </c>
       <c r="BL48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BM48" s="7">
+      <c r="BM48" s="6">
         <v>45214</v>
       </c>
-      <c r="BN48" s="7">
+      <c r="BN48" s="6">
         <v>45350</v>
       </c>
-      <c r="BO48" s="7">
+      <c r="BO48" s="6">
         <v>45096</v>
       </c>
-      <c r="BP48" s="7">
+      <c r="BP48" s="6">
         <v>44503</v>
       </c>
-      <c r="BQ48" s="7">
+      <c r="BQ48" s="6">
         <v>44855</v>
       </c>
       <c r="BR48" s="4" t="s">
@@ -14140,37 +14137,37 @@
       <c r="F49" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <v>44545</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>45152</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <v>45152</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <v>45152</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="6">
         <v>44580</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="6">
         <v>44241</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="6">
         <v>43978</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="6">
         <v>44415</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="6">
         <v>45218</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="6">
         <v>43849</v>
       </c>
       <c r="R49" s="5"/>
@@ -14239,10 +14236,10 @@
       <c r="AO49" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP49" s="7">
+      <c r="AP49" s="6">
         <v>44562</v>
       </c>
-      <c r="AQ49" s="7">
+      <c r="AQ49" s="6">
         <v>45112</v>
       </c>
       <c r="AR49" s="4" t="s">
@@ -14292,31 +14289,31 @@
       <c r="BH49" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BI49" s="7">
+      <c r="BI49" s="6">
         <v>43972</v>
       </c>
-      <c r="BJ49" s="7">
+      <c r="BJ49" s="6">
         <v>45362</v>
       </c>
-      <c r="BK49" s="7">
+      <c r="BK49" s="6">
         <v>44156</v>
       </c>
       <c r="BL49" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM49" s="7">
+      <c r="BM49" s="6">
         <v>44346</v>
       </c>
-      <c r="BN49" s="7">
+      <c r="BN49" s="6">
         <v>44134</v>
       </c>
-      <c r="BO49" s="7">
+      <c r="BO49" s="6">
         <v>44976</v>
       </c>
-      <c r="BP49" s="7">
+      <c r="BP49" s="6">
         <v>45184</v>
       </c>
-      <c r="BQ49" s="7">
+      <c r="BQ49" s="6">
         <v>44696</v>
       </c>
       <c r="BR49" s="4" t="s">
@@ -14348,37 +14345,37 @@
       <c r="F50" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>44285</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>44334</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <v>44334</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
         <v>44334</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="6">
         <v>44809</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="6">
         <v>44472</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="6">
         <v>44870</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="6">
         <v>43841</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="6">
         <v>44497</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50" s="6">
         <v>44665</v>
       </c>
       <c r="R50" s="5"/>
@@ -14447,10 +14444,10 @@
       <c r="AO50" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP50" s="7">
+      <c r="AP50" s="6">
         <v>44215</v>
       </c>
-      <c r="AQ50" s="7">
+      <c r="AQ50" s="6">
         <v>44719</v>
       </c>
       <c r="AR50" s="4" t="s">
@@ -14500,31 +14497,31 @@
       <c r="BH50" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BI50" s="7">
+      <c r="BI50" s="6">
         <v>45354</v>
       </c>
-      <c r="BJ50" s="7">
+      <c r="BJ50" s="6">
         <v>45242</v>
       </c>
-      <c r="BK50" s="7">
+      <c r="BK50" s="6">
         <v>44244</v>
       </c>
       <c r="BL50" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BM50" s="7">
+      <c r="BM50" s="6">
         <v>44897</v>
       </c>
-      <c r="BN50" s="7">
+      <c r="BN50" s="6">
         <v>44904</v>
       </c>
-      <c r="BO50" s="7">
+      <c r="BO50" s="6">
         <v>45386</v>
       </c>
-      <c r="BP50" s="7">
+      <c r="BP50" s="6">
         <v>45478</v>
       </c>
-      <c r="BQ50" s="7">
+      <c r="BQ50" s="6">
         <v>45137</v>
       </c>
       <c r="BR50" s="4" t="s">
@@ -14556,37 +14553,37 @@
       <c r="F51" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <v>44463</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>44575</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <v>44575</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="6">
         <v>44575</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="6">
         <v>44447</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="6">
         <v>44005</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="6">
         <v>45313</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="6">
         <v>44234</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="6">
         <v>43931</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="6">
         <v>45198</v>
       </c>
       <c r="R51" s="5"/>
@@ -14655,10 +14652,10 @@
       <c r="AO51" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP51" s="7">
+      <c r="AP51" s="6">
         <v>45460</v>
       </c>
-      <c r="AQ51" s="7">
+      <c r="AQ51" s="6">
         <v>45563</v>
       </c>
       <c r="AR51" s="4" t="s">
@@ -14708,31 +14705,31 @@
       <c r="BH51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BI51" s="7">
+      <c r="BI51" s="6">
         <v>43907</v>
       </c>
-      <c r="BJ51" s="7">
+      <c r="BJ51" s="6">
         <v>45432</v>
       </c>
-      <c r="BK51" s="7">
+      <c r="BK51" s="6">
         <v>45581</v>
       </c>
       <c r="BL51" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BM51" s="7">
+      <c r="BM51" s="6">
         <v>45414</v>
       </c>
-      <c r="BN51" s="7">
+      <c r="BN51" s="6">
         <v>45374</v>
       </c>
-      <c r="BO51" s="7">
+      <c r="BO51" s="6">
         <v>44020</v>
       </c>
-      <c r="BP51" s="7">
+      <c r="BP51" s="6">
         <v>44229</v>
       </c>
-      <c r="BQ51" s="7">
+      <c r="BQ51" s="6">
         <v>45131</v>
       </c>
       <c r="BR51" s="4" t="s">
@@ -14753,16 +14750,16 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
       <c r="R52" s="4"/>
       <c r="S52" s="5" t="s">
         <v>80</v>
@@ -14793,8 +14790,8 @@
       </c>
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
-      <c r="AP52" s="8"/>
-      <c r="AQ52" s="8"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
@@ -14812,15 +14809,15 @@
       <c r="BF52" s="4"/>
       <c r="BG52" s="4"/>
       <c r="BH52" s="4"/>
-      <c r="BI52" s="8"/>
-      <c r="BJ52" s="8"/>
-      <c r="BK52" s="8"/>
+      <c r="BI52" s="7"/>
+      <c r="BJ52" s="7"/>
+      <c r="BK52" s="7"/>
       <c r="BL52" s="4"/>
-      <c r="BM52" s="8"/>
-      <c r="BN52" s="8"/>
-      <c r="BO52" s="8"/>
-      <c r="BP52" s="8"/>
-      <c r="BQ52" s="8"/>
+      <c r="BM52" s="7"/>
+      <c r="BN52" s="7"/>
+      <c r="BO52" s="7"/>
+      <c r="BP52" s="7"/>
+      <c r="BQ52" s="7"/>
       <c r="BR52" s="4"/>
       <c r="BS52" s="4"/>
       <c r="BT52" s="4"/>
@@ -14833,16 +14830,16 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
@@ -14869,8 +14866,8 @@
       <c r="AM53" s="4"/>
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
-      <c r="AP53" s="8"/>
-      <c r="AQ53" s="8"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="7"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
       <c r="AT53" s="4"/>
@@ -14888,15 +14885,15 @@
       <c r="BF53" s="4"/>
       <c r="BG53" s="4"/>
       <c r="BH53" s="4"/>
-      <c r="BI53" s="8"/>
-      <c r="BJ53" s="8"/>
-      <c r="BK53" s="8"/>
+      <c r="BI53" s="7"/>
+      <c r="BJ53" s="7"/>
+      <c r="BK53" s="7"/>
       <c r="BL53" s="4"/>
-      <c r="BM53" s="8"/>
-      <c r="BN53" s="8"/>
-      <c r="BO53" s="8"/>
-      <c r="BP53" s="8"/>
-      <c r="BQ53" s="8"/>
+      <c r="BM53" s="7"/>
+      <c r="BN53" s="7"/>
+      <c r="BO53" s="7"/>
+      <c r="BP53" s="7"/>
+      <c r="BQ53" s="7"/>
       <c r="BR53" s="4"/>
       <c r="BS53" s="4"/>
       <c r="BT53" s="4"/>
@@ -14909,16 +14906,16 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
@@ -14945,8 +14942,8 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
-      <c r="AP54" s="8"/>
-      <c r="AQ54" s="8"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
       <c r="AT54" s="4"/>
@@ -14964,15 +14961,15 @@
       <c r="BF54" s="4"/>
       <c r="BG54" s="4"/>
       <c r="BH54" s="4"/>
-      <c r="BI54" s="8"/>
-      <c r="BJ54" s="8"/>
-      <c r="BK54" s="8"/>
+      <c r="BI54" s="7"/>
+      <c r="BJ54" s="7"/>
+      <c r="BK54" s="7"/>
       <c r="BL54" s="4"/>
-      <c r="BM54" s="8"/>
-      <c r="BN54" s="8"/>
-      <c r="BO54" s="8"/>
-      <c r="BP54" s="8"/>
-      <c r="BQ54" s="8"/>
+      <c r="BM54" s="7"/>
+      <c r="BN54" s="7"/>
+      <c r="BO54" s="7"/>
+      <c r="BP54" s="7"/>
+      <c r="BQ54" s="7"/>
       <c r="BR54" s="4"/>
       <c r="BS54" s="4"/>
       <c r="BT54" s="4"/>
@@ -14985,16 +14982,16 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
@@ -15021,8 +15018,8 @@
       <c r="AM55" s="4"/>
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
-      <c r="AP55" s="8"/>
-      <c r="AQ55" s="8"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
       <c r="AR55" s="4"/>
       <c r="AS55" s="4"/>
       <c r="AT55" s="4"/>
@@ -15040,15 +15037,15 @@
       <c r="BF55" s="4"/>
       <c r="BG55" s="4"/>
       <c r="BH55" s="4"/>
-      <c r="BI55" s="8"/>
-      <c r="BJ55" s="8"/>
-      <c r="BK55" s="8"/>
+      <c r="BI55" s="7"/>
+      <c r="BJ55" s="7"/>
+      <c r="BK55" s="7"/>
       <c r="BL55" s="4"/>
-      <c r="BM55" s="8"/>
-      <c r="BN55" s="8"/>
-      <c r="BO55" s="8"/>
-      <c r="BP55" s="8"/>
-      <c r="BQ55" s="8"/>
+      <c r="BM55" s="7"/>
+      <c r="BN55" s="7"/>
+      <c r="BO55" s="7"/>
+      <c r="BP55" s="7"/>
+      <c r="BQ55" s="7"/>
       <c r="BR55" s="4"/>
       <c r="BS55" s="4"/>
       <c r="BT55" s="4"/>
@@ -15061,16 +15058,16 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
@@ -15097,8 +15094,8 @@
       <c r="AM56" s="4"/>
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
-      <c r="AP56" s="8"/>
-      <c r="AQ56" s="8"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
       <c r="AR56" s="4"/>
       <c r="AS56" s="4"/>
       <c r="AT56" s="4"/>
@@ -15116,15 +15113,15 @@
       <c r="BF56" s="4"/>
       <c r="BG56" s="4"/>
       <c r="BH56" s="4"/>
-      <c r="BI56" s="8"/>
-      <c r="BJ56" s="8"/>
-      <c r="BK56" s="8"/>
+      <c r="BI56" s="7"/>
+      <c r="BJ56" s="7"/>
+      <c r="BK56" s="7"/>
       <c r="BL56" s="4"/>
-      <c r="BM56" s="8"/>
-      <c r="BN56" s="8"/>
-      <c r="BO56" s="8"/>
-      <c r="BP56" s="8"/>
-      <c r="BQ56" s="8"/>
+      <c r="BM56" s="7"/>
+      <c r="BN56" s="7"/>
+      <c r="BO56" s="7"/>
+      <c r="BP56" s="7"/>
+      <c r="BQ56" s="7"/>
       <c r="BR56" s="4"/>
       <c r="BS56" s="4"/>
       <c r="BT56" s="4"/>
@@ -15137,16 +15134,16 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
@@ -15173,8 +15170,8 @@
       <c r="AM57" s="4"/>
       <c r="AN57" s="4"/>
       <c r="AO57" s="4"/>
-      <c r="AP57" s="8"/>
-      <c r="AQ57" s="8"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
       <c r="AR57" s="4"/>
       <c r="AS57" s="4"/>
       <c r="AT57" s="4"/>
@@ -15192,15 +15189,15 @@
       <c r="BF57" s="4"/>
       <c r="BG57" s="4"/>
       <c r="BH57" s="4"/>
-      <c r="BI57" s="8"/>
-      <c r="BJ57" s="8"/>
-      <c r="BK57" s="8"/>
+      <c r="BI57" s="7"/>
+      <c r="BJ57" s="7"/>
+      <c r="BK57" s="7"/>
       <c r="BL57" s="4"/>
-      <c r="BM57" s="8"/>
-      <c r="BN57" s="8"/>
-      <c r="BO57" s="8"/>
-      <c r="BP57" s="8"/>
-      <c r="BQ57" s="8"/>
+      <c r="BM57" s="7"/>
+      <c r="BN57" s="7"/>
+      <c r="BO57" s="7"/>
+      <c r="BP57" s="7"/>
+      <c r="BQ57" s="7"/>
       <c r="BR57" s="4"/>
       <c r="BS57" s="4"/>
       <c r="BT57" s="4"/>
@@ -15213,16 +15210,16 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
@@ -15249,8 +15246,8 @@
       <c r="AM58" s="4"/>
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
-      <c r="AP58" s="8"/>
-      <c r="AQ58" s="8"/>
+      <c r="AP58" s="7"/>
+      <c r="AQ58" s="7"/>
       <c r="AR58" s="4"/>
       <c r="AS58" s="4"/>
       <c r="AT58" s="4"/>
@@ -15268,15 +15265,15 @@
       <c r="BF58" s="4"/>
       <c r="BG58" s="4"/>
       <c r="BH58" s="4"/>
-      <c r="BI58" s="8"/>
-      <c r="BJ58" s="8"/>
-      <c r="BK58" s="8"/>
+      <c r="BI58" s="7"/>
+      <c r="BJ58" s="7"/>
+      <c r="BK58" s="7"/>
       <c r="BL58" s="4"/>
-      <c r="BM58" s="8"/>
-      <c r="BN58" s="8"/>
-      <c r="BO58" s="8"/>
-      <c r="BP58" s="8"/>
-      <c r="BQ58" s="8"/>
+      <c r="BM58" s="7"/>
+      <c r="BN58" s="7"/>
+      <c r="BO58" s="7"/>
+      <c r="BP58" s="7"/>
+      <c r="BQ58" s="7"/>
       <c r="BR58" s="4"/>
       <c r="BS58" s="4"/>
       <c r="BT58" s="4"/>
@@ -15289,16 +15286,16 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
@@ -15325,8 +15322,8 @@
       <c r="AM59" s="4"/>
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
-      <c r="AP59" s="8"/>
-      <c r="AQ59" s="8"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
       <c r="AR59" s="4"/>
       <c r="AS59" s="4"/>
       <c r="AT59" s="4"/>
@@ -15344,15 +15341,15 @@
       <c r="BF59" s="4"/>
       <c r="BG59" s="4"/>
       <c r="BH59" s="4"/>
-      <c r="BI59" s="8"/>
-      <c r="BJ59" s="8"/>
-      <c r="BK59" s="8"/>
+      <c r="BI59" s="7"/>
+      <c r="BJ59" s="7"/>
+      <c r="BK59" s="7"/>
       <c r="BL59" s="4"/>
-      <c r="BM59" s="8"/>
-      <c r="BN59" s="8"/>
-      <c r="BO59" s="8"/>
-      <c r="BP59" s="8"/>
-      <c r="BQ59" s="8"/>
+      <c r="BM59" s="7"/>
+      <c r="BN59" s="7"/>
+      <c r="BO59" s="7"/>
+      <c r="BP59" s="7"/>
+      <c r="BQ59" s="7"/>
       <c r="BR59" s="4"/>
       <c r="BS59" s="4"/>
       <c r="BT59" s="4"/>
@@ -15365,16 +15362,16 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
@@ -15401,8 +15398,8 @@
       <c r="AM60" s="4"/>
       <c r="AN60" s="4"/>
       <c r="AO60" s="4"/>
-      <c r="AP60" s="8"/>
-      <c r="AQ60" s="8"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
       <c r="AR60" s="4"/>
       <c r="AS60" s="4"/>
       <c r="AT60" s="4"/>
@@ -15420,15 +15417,15 @@
       <c r="BF60" s="4"/>
       <c r="BG60" s="4"/>
       <c r="BH60" s="4"/>
-      <c r="BI60" s="8"/>
-      <c r="BJ60" s="8"/>
-      <c r="BK60" s="8"/>
+      <c r="BI60" s="7"/>
+      <c r="BJ60" s="7"/>
+      <c r="BK60" s="7"/>
       <c r="BL60" s="4"/>
-      <c r="BM60" s="8"/>
-      <c r="BN60" s="8"/>
-      <c r="BO60" s="8"/>
-      <c r="BP60" s="8"/>
-      <c r="BQ60" s="8"/>
+      <c r="BM60" s="7"/>
+      <c r="BN60" s="7"/>
+      <c r="BO60" s="7"/>
+      <c r="BP60" s="7"/>
+      <c r="BQ60" s="7"/>
       <c r="BR60" s="4"/>
       <c r="BS60" s="4"/>
       <c r="BT60" s="4"/>
@@ -15441,16 +15438,16 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
@@ -15477,8 +15474,8 @@
       <c r="AM61" s="4"/>
       <c r="AN61" s="4"/>
       <c r="AO61" s="4"/>
-      <c r="AP61" s="8"/>
-      <c r="AQ61" s="8"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
       <c r="AR61" s="4"/>
       <c r="AS61" s="4"/>
       <c r="AT61" s="4"/>
@@ -15496,15 +15493,15 @@
       <c r="BF61" s="4"/>
       <c r="BG61" s="4"/>
       <c r="BH61" s="4"/>
-      <c r="BI61" s="8"/>
-      <c r="BJ61" s="8"/>
-      <c r="BK61" s="8"/>
+      <c r="BI61" s="7"/>
+      <c r="BJ61" s="7"/>
+      <c r="BK61" s="7"/>
       <c r="BL61" s="4"/>
-      <c r="BM61" s="8"/>
-      <c r="BN61" s="8"/>
-      <c r="BO61" s="8"/>
-      <c r="BP61" s="8"/>
-      <c r="BQ61" s="8"/>
+      <c r="BM61" s="7"/>
+      <c r="BN61" s="7"/>
+      <c r="BO61" s="7"/>
+      <c r="BP61" s="7"/>
+      <c r="BQ61" s="7"/>
       <c r="BR61" s="4"/>
       <c r="BS61" s="4"/>
       <c r="BT61" s="4"/>
@@ -15517,16 +15514,16 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
@@ -15553,8 +15550,8 @@
       <c r="AM62" s="4"/>
       <c r="AN62" s="4"/>
       <c r="AO62" s="4"/>
-      <c r="AP62" s="8"/>
-      <c r="AQ62" s="8"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
       <c r="AR62" s="4"/>
       <c r="AS62" s="4"/>
       <c r="AT62" s="4"/>
@@ -15572,15 +15569,15 @@
       <c r="BF62" s="4"/>
       <c r="BG62" s="4"/>
       <c r="BH62" s="4"/>
-      <c r="BI62" s="8"/>
-      <c r="BJ62" s="8"/>
-      <c r="BK62" s="8"/>
+      <c r="BI62" s="7"/>
+      <c r="BJ62" s="7"/>
+      <c r="BK62" s="7"/>
       <c r="BL62" s="4"/>
-      <c r="BM62" s="8"/>
-      <c r="BN62" s="8"/>
-      <c r="BO62" s="8"/>
-      <c r="BP62" s="8"/>
-      <c r="BQ62" s="8"/>
+      <c r="BM62" s="7"/>
+      <c r="BN62" s="7"/>
+      <c r="BO62" s="7"/>
+      <c r="BP62" s="7"/>
+      <c r="BQ62" s="7"/>
       <c r="BR62" s="4"/>
       <c r="BS62" s="4"/>
       <c r="BT62" s="4"/>
@@ -15593,16 +15590,16 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
@@ -15629,8 +15626,8 @@
       <c r="AM63" s="4"/>
       <c r="AN63" s="4"/>
       <c r="AO63" s="4"/>
-      <c r="AP63" s="8"/>
-      <c r="AQ63" s="8"/>
+      <c r="AP63" s="7"/>
+      <c r="AQ63" s="7"/>
       <c r="AR63" s="4"/>
       <c r="AS63" s="4"/>
       <c r="AT63" s="4"/>
@@ -15648,15 +15645,15 @@
       <c r="BF63" s="4"/>
       <c r="BG63" s="4"/>
       <c r="BH63" s="4"/>
-      <c r="BI63" s="8"/>
-      <c r="BJ63" s="8"/>
-      <c r="BK63" s="8"/>
+      <c r="BI63" s="7"/>
+      <c r="BJ63" s="7"/>
+      <c r="BK63" s="7"/>
       <c r="BL63" s="4"/>
-      <c r="BM63" s="8"/>
-      <c r="BN63" s="8"/>
-      <c r="BO63" s="8"/>
-      <c r="BP63" s="8"/>
-      <c r="BQ63" s="8"/>
+      <c r="BM63" s="7"/>
+      <c r="BN63" s="7"/>
+      <c r="BO63" s="7"/>
+      <c r="BP63" s="7"/>
+      <c r="BQ63" s="7"/>
       <c r="BR63" s="4"/>
       <c r="BS63" s="4"/>
       <c r="BT63" s="4"/>
@@ -15669,16 +15666,16 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
@@ -15705,8 +15702,8 @@
       <c r="AM64" s="4"/>
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
-      <c r="AP64" s="8"/>
-      <c r="AQ64" s="8"/>
+      <c r="AP64" s="7"/>
+      <c r="AQ64" s="7"/>
       <c r="AR64" s="4"/>
       <c r="AS64" s="4"/>
       <c r="AT64" s="4"/>
@@ -15724,15 +15721,15 @@
       <c r="BF64" s="4"/>
       <c r="BG64" s="4"/>
       <c r="BH64" s="4"/>
-      <c r="BI64" s="8"/>
-      <c r="BJ64" s="8"/>
-      <c r="BK64" s="8"/>
+      <c r="BI64" s="7"/>
+      <c r="BJ64" s="7"/>
+      <c r="BK64" s="7"/>
       <c r="BL64" s="4"/>
-      <c r="BM64" s="8"/>
-      <c r="BN64" s="8"/>
-      <c r="BO64" s="8"/>
-      <c r="BP64" s="8"/>
-      <c r="BQ64" s="8"/>
+      <c r="BM64" s="7"/>
+      <c r="BN64" s="7"/>
+      <c r="BO64" s="7"/>
+      <c r="BP64" s="7"/>
+      <c r="BQ64" s="7"/>
       <c r="BR64" s="4"/>
       <c r="BS64" s="4"/>
       <c r="BT64" s="4"/>
@@ -15745,16 +15742,16 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
@@ -15781,8 +15778,8 @@
       <c r="AM65" s="4"/>
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
-      <c r="AP65" s="8"/>
-      <c r="AQ65" s="8"/>
+      <c r="AP65" s="7"/>
+      <c r="AQ65" s="7"/>
       <c r="AR65" s="4"/>
       <c r="AS65" s="4"/>
       <c r="AT65" s="4"/>
@@ -15800,15 +15797,15 @@
       <c r="BF65" s="4"/>
       <c r="BG65" s="4"/>
       <c r="BH65" s="4"/>
-      <c r="BI65" s="8"/>
-      <c r="BJ65" s="8"/>
-      <c r="BK65" s="8"/>
+      <c r="BI65" s="7"/>
+      <c r="BJ65" s="7"/>
+      <c r="BK65" s="7"/>
       <c r="BL65" s="4"/>
-      <c r="BM65" s="8"/>
-      <c r="BN65" s="8"/>
-      <c r="BO65" s="8"/>
-      <c r="BP65" s="8"/>
-      <c r="BQ65" s="8"/>
+      <c r="BM65" s="7"/>
+      <c r="BN65" s="7"/>
+      <c r="BO65" s="7"/>
+      <c r="BP65" s="7"/>
+      <c r="BQ65" s="7"/>
       <c r="BR65" s="4"/>
       <c r="BS65" s="4"/>
       <c r="BT65" s="4"/>
@@ -15821,16 +15818,16 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
@@ -15857,8 +15854,8 @@
       <c r="AM66" s="4"/>
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
-      <c r="AP66" s="8"/>
-      <c r="AQ66" s="8"/>
+      <c r="AP66" s="7"/>
+      <c r="AQ66" s="7"/>
       <c r="AR66" s="4"/>
       <c r="AS66" s="4"/>
       <c r="AT66" s="4"/>
@@ -15876,15 +15873,15 @@
       <c r="BF66" s="4"/>
       <c r="BG66" s="4"/>
       <c r="BH66" s="4"/>
-      <c r="BI66" s="8"/>
-      <c r="BJ66" s="8"/>
-      <c r="BK66" s="8"/>
+      <c r="BI66" s="7"/>
+      <c r="BJ66" s="7"/>
+      <c r="BK66" s="7"/>
       <c r="BL66" s="4"/>
-      <c r="BM66" s="8"/>
-      <c r="BN66" s="8"/>
-      <c r="BO66" s="8"/>
-      <c r="BP66" s="8"/>
-      <c r="BQ66" s="8"/>
+      <c r="BM66" s="7"/>
+      <c r="BN66" s="7"/>
+      <c r="BO66" s="7"/>
+      <c r="BP66" s="7"/>
+      <c r="BQ66" s="7"/>
       <c r="BR66" s="4"/>
       <c r="BS66" s="4"/>
       <c r="BT66" s="4"/>
@@ -15897,16 +15894,16 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -15933,8 +15930,8 @@
       <c r="AM67" s="4"/>
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
-      <c r="AP67" s="8"/>
-      <c r="AQ67" s="8"/>
+      <c r="AP67" s="7"/>
+      <c r="AQ67" s="7"/>
       <c r="AR67" s="4"/>
       <c r="AS67" s="4"/>
       <c r="AT67" s="4"/>
@@ -15952,15 +15949,15 @@
       <c r="BF67" s="4"/>
       <c r="BG67" s="4"/>
       <c r="BH67" s="4"/>
-      <c r="BI67" s="8"/>
-      <c r="BJ67" s="8"/>
-      <c r="BK67" s="8"/>
+      <c r="BI67" s="7"/>
+      <c r="BJ67" s="7"/>
+      <c r="BK67" s="7"/>
       <c r="BL67" s="4"/>
-      <c r="BM67" s="8"/>
-      <c r="BN67" s="8"/>
-      <c r="BO67" s="8"/>
-      <c r="BP67" s="8"/>
-      <c r="BQ67" s="8"/>
+      <c r="BM67" s="7"/>
+      <c r="BN67" s="7"/>
+      <c r="BO67" s="7"/>
+      <c r="BP67" s="7"/>
+      <c r="BQ67" s="7"/>
       <c r="BR67" s="4"/>
       <c r="BS67" s="4"/>
       <c r="BT67" s="4"/>
@@ -15973,16 +15970,16 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
@@ -16009,8 +16006,8 @@
       <c r="AM68" s="4"/>
       <c r="AN68" s="4"/>
       <c r="AO68" s="4"/>
-      <c r="AP68" s="8"/>
-      <c r="AQ68" s="8"/>
+      <c r="AP68" s="7"/>
+      <c r="AQ68" s="7"/>
       <c r="AR68" s="4"/>
       <c r="AS68" s="4"/>
       <c r="AT68" s="4"/>
@@ -16028,15 +16025,15 @@
       <c r="BF68" s="4"/>
       <c r="BG68" s="4"/>
       <c r="BH68" s="4"/>
-      <c r="BI68" s="8"/>
-      <c r="BJ68" s="8"/>
-      <c r="BK68" s="8"/>
+      <c r="BI68" s="7"/>
+      <c r="BJ68" s="7"/>
+      <c r="BK68" s="7"/>
       <c r="BL68" s="4"/>
-      <c r="BM68" s="8"/>
-      <c r="BN68" s="8"/>
-      <c r="BO68" s="8"/>
-      <c r="BP68" s="8"/>
-      <c r="BQ68" s="8"/>
+      <c r="BM68" s="7"/>
+      <c r="BN68" s="7"/>
+      <c r="BO68" s="7"/>
+      <c r="BP68" s="7"/>
+      <c r="BQ68" s="7"/>
       <c r="BR68" s="4"/>
       <c r="BS68" s="4"/>
       <c r="BT68" s="4"/>
@@ -16049,16 +16046,16 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
@@ -16085,8 +16082,8 @@
       <c r="AM69" s="4"/>
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
-      <c r="AP69" s="8"/>
-      <c r="AQ69" s="8"/>
+      <c r="AP69" s="7"/>
+      <c r="AQ69" s="7"/>
       <c r="AR69" s="4"/>
       <c r="AS69" s="4"/>
       <c r="AT69" s="4"/>
@@ -16104,15 +16101,15 @@
       <c r="BF69" s="4"/>
       <c r="BG69" s="4"/>
       <c r="BH69" s="4"/>
-      <c r="BI69" s="8"/>
-      <c r="BJ69" s="8"/>
-      <c r="BK69" s="8"/>
+      <c r="BI69" s="7"/>
+      <c r="BJ69" s="7"/>
+      <c r="BK69" s="7"/>
       <c r="BL69" s="4"/>
-      <c r="BM69" s="8"/>
-      <c r="BN69" s="8"/>
-      <c r="BO69" s="8"/>
-      <c r="BP69" s="8"/>
-      <c r="BQ69" s="8"/>
+      <c r="BM69" s="7"/>
+      <c r="BN69" s="7"/>
+      <c r="BO69" s="7"/>
+      <c r="BP69" s="7"/>
+      <c r="BQ69" s="7"/>
       <c r="BR69" s="4"/>
       <c r="BS69" s="4"/>
       <c r="BT69" s="4"/>
@@ -16125,16 +16122,16 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
@@ -16161,8 +16158,8 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
-      <c r="AP70" s="8"/>
-      <c r="AQ70" s="8"/>
+      <c r="AP70" s="7"/>
+      <c r="AQ70" s="7"/>
       <c r="AR70" s="4"/>
       <c r="AS70" s="4"/>
       <c r="AT70" s="4"/>
@@ -16180,15 +16177,15 @@
       <c r="BF70" s="4"/>
       <c r="BG70" s="4"/>
       <c r="BH70" s="4"/>
-      <c r="BI70" s="8"/>
-      <c r="BJ70" s="8"/>
-      <c r="BK70" s="8"/>
+      <c r="BI70" s="7"/>
+      <c r="BJ70" s="7"/>
+      <c r="BK70" s="7"/>
       <c r="BL70" s="4"/>
-      <c r="BM70" s="8"/>
-      <c r="BN70" s="8"/>
-      <c r="BO70" s="8"/>
-      <c r="BP70" s="8"/>
-      <c r="BQ70" s="8"/>
+      <c r="BM70" s="7"/>
+      <c r="BN70" s="7"/>
+      <c r="BO70" s="7"/>
+      <c r="BP70" s="7"/>
+      <c r="BQ70" s="7"/>
       <c r="BR70" s="4"/>
       <c r="BS70" s="4"/>
       <c r="BT70" s="4"/>
@@ -16201,16 +16198,16 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
@@ -16237,8 +16234,8 @@
       <c r="AM71" s="4"/>
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
-      <c r="AP71" s="8"/>
-      <c r="AQ71" s="8"/>
+      <c r="AP71" s="7"/>
+      <c r="AQ71" s="7"/>
       <c r="AR71" s="4"/>
       <c r="AS71" s="4"/>
       <c r="AT71" s="4"/>
@@ -16256,15 +16253,15 @@
       <c r="BF71" s="4"/>
       <c r="BG71" s="4"/>
       <c r="BH71" s="4"/>
-      <c r="BI71" s="8"/>
-      <c r="BJ71" s="8"/>
-      <c r="BK71" s="8"/>
+      <c r="BI71" s="7"/>
+      <c r="BJ71" s="7"/>
+      <c r="BK71" s="7"/>
       <c r="BL71" s="4"/>
-      <c r="BM71" s="8"/>
-      <c r="BN71" s="8"/>
-      <c r="BO71" s="8"/>
-      <c r="BP71" s="8"/>
-      <c r="BQ71" s="8"/>
+      <c r="BM71" s="7"/>
+      <c r="BN71" s="7"/>
+      <c r="BO71" s="7"/>
+      <c r="BP71" s="7"/>
+      <c r="BQ71" s="7"/>
       <c r="BR71" s="4"/>
       <c r="BS71" s="4"/>
       <c r="BT71" s="4"/>
@@ -16277,16 +16274,16 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
@@ -16313,8 +16310,8 @@
       <c r="AM72" s="4"/>
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
-      <c r="AP72" s="8"/>
-      <c r="AQ72" s="8"/>
+      <c r="AP72" s="7"/>
+      <c r="AQ72" s="7"/>
       <c r="AR72" s="4"/>
       <c r="AS72" s="4"/>
       <c r="AT72" s="4"/>
@@ -16332,15 +16329,15 @@
       <c r="BF72" s="4"/>
       <c r="BG72" s="4"/>
       <c r="BH72" s="4"/>
-      <c r="BI72" s="8"/>
-      <c r="BJ72" s="8"/>
-      <c r="BK72" s="8"/>
+      <c r="BI72" s="7"/>
+      <c r="BJ72" s="7"/>
+      <c r="BK72" s="7"/>
       <c r="BL72" s="4"/>
-      <c r="BM72" s="8"/>
-      <c r="BN72" s="8"/>
-      <c r="BO72" s="8"/>
-      <c r="BP72" s="8"/>
-      <c r="BQ72" s="8"/>
+      <c r="BM72" s="7"/>
+      <c r="BN72" s="7"/>
+      <c r="BO72" s="7"/>
+      <c r="BP72" s="7"/>
+      <c r="BQ72" s="7"/>
       <c r="BR72" s="4"/>
       <c r="BS72" s="4"/>
       <c r="BT72" s="4"/>
@@ -16353,16 +16350,16 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
@@ -16389,8 +16386,8 @@
       <c r="AM73" s="4"/>
       <c r="AN73" s="4"/>
       <c r="AO73" s="4"/>
-      <c r="AP73" s="8"/>
-      <c r="AQ73" s="8"/>
+      <c r="AP73" s="7"/>
+      <c r="AQ73" s="7"/>
       <c r="AR73" s="4"/>
       <c r="AS73" s="4"/>
       <c r="AT73" s="4"/>
@@ -16408,15 +16405,15 @@
       <c r="BF73" s="4"/>
       <c r="BG73" s="4"/>
       <c r="BH73" s="4"/>
-      <c r="BI73" s="8"/>
-      <c r="BJ73" s="8"/>
-      <c r="BK73" s="8"/>
+      <c r="BI73" s="7"/>
+      <c r="BJ73" s="7"/>
+      <c r="BK73" s="7"/>
       <c r="BL73" s="4"/>
-      <c r="BM73" s="8"/>
-      <c r="BN73" s="8"/>
-      <c r="BO73" s="8"/>
-      <c r="BP73" s="8"/>
-      <c r="BQ73" s="8"/>
+      <c r="BM73" s="7"/>
+      <c r="BN73" s="7"/>
+      <c r="BO73" s="7"/>
+      <c r="BP73" s="7"/>
+      <c r="BQ73" s="7"/>
       <c r="BR73" s="4"/>
       <c r="BS73" s="4"/>
       <c r="BT73" s="4"/>
@@ -16429,16 +16426,16 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
@@ -16465,8 +16462,8 @@
       <c r="AM74" s="4"/>
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
-      <c r="AP74" s="8"/>
-      <c r="AQ74" s="8"/>
+      <c r="AP74" s="7"/>
+      <c r="AQ74" s="7"/>
       <c r="AR74" s="4"/>
       <c r="AS74" s="4"/>
       <c r="AT74" s="4"/>
@@ -16484,15 +16481,15 @@
       <c r="BF74" s="4"/>
       <c r="BG74" s="4"/>
       <c r="BH74" s="4"/>
-      <c r="BI74" s="8"/>
-      <c r="BJ74" s="8"/>
-      <c r="BK74" s="8"/>
+      <c r="BI74" s="7"/>
+      <c r="BJ74" s="7"/>
+      <c r="BK74" s="7"/>
       <c r="BL74" s="4"/>
-      <c r="BM74" s="8"/>
-      <c r="BN74" s="8"/>
-      <c r="BO74" s="8"/>
-      <c r="BP74" s="8"/>
-      <c r="BQ74" s="8"/>
+      <c r="BM74" s="7"/>
+      <c r="BN74" s="7"/>
+      <c r="BO74" s="7"/>
+      <c r="BP74" s="7"/>
+      <c r="BQ74" s="7"/>
       <c r="BR74" s="4"/>
       <c r="BS74" s="4"/>
       <c r="BT74" s="4"/>
@@ -16505,16 +16502,16 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
@@ -16541,8 +16538,8 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="4"/>
       <c r="AO75" s="4"/>
-      <c r="AP75" s="8"/>
-      <c r="AQ75" s="8"/>
+      <c r="AP75" s="7"/>
+      <c r="AQ75" s="7"/>
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
       <c r="AT75" s="4"/>
@@ -16560,15 +16557,15 @@
       <c r="BF75" s="4"/>
       <c r="BG75" s="4"/>
       <c r="BH75" s="4"/>
-      <c r="BI75" s="8"/>
-      <c r="BJ75" s="8"/>
-      <c r="BK75" s="8"/>
+      <c r="BI75" s="7"/>
+      <c r="BJ75" s="7"/>
+      <c r="BK75" s="7"/>
       <c r="BL75" s="4"/>
-      <c r="BM75" s="8"/>
-      <c r="BN75" s="8"/>
-      <c r="BO75" s="8"/>
-      <c r="BP75" s="8"/>
-      <c r="BQ75" s="8"/>
+      <c r="BM75" s="7"/>
+      <c r="BN75" s="7"/>
+      <c r="BO75" s="7"/>
+      <c r="BP75" s="7"/>
+      <c r="BQ75" s="7"/>
       <c r="BR75" s="4"/>
       <c r="BS75" s="4"/>
       <c r="BT75" s="4"/>
@@ -16581,16 +16578,16 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
@@ -16617,8 +16614,8 @@
       <c r="AM76" s="4"/>
       <c r="AN76" s="4"/>
       <c r="AO76" s="4"/>
-      <c r="AP76" s="8"/>
-      <c r="AQ76" s="8"/>
+      <c r="AP76" s="7"/>
+      <c r="AQ76" s="7"/>
       <c r="AR76" s="4"/>
       <c r="AS76" s="4"/>
       <c r="AT76" s="4"/>
@@ -16636,15 +16633,15 @@
       <c r="BF76" s="4"/>
       <c r="BG76" s="4"/>
       <c r="BH76" s="4"/>
-      <c r="BI76" s="8"/>
-      <c r="BJ76" s="8"/>
-      <c r="BK76" s="8"/>
+      <c r="BI76" s="7"/>
+      <c r="BJ76" s="7"/>
+      <c r="BK76" s="7"/>
       <c r="BL76" s="4"/>
-      <c r="BM76" s="8"/>
-      <c r="BN76" s="8"/>
-      <c r="BO76" s="8"/>
-      <c r="BP76" s="8"/>
-      <c r="BQ76" s="8"/>
+      <c r="BM76" s="7"/>
+      <c r="BN76" s="7"/>
+      <c r="BO76" s="7"/>
+      <c r="BP76" s="7"/>
+      <c r="BQ76" s="7"/>
       <c r="BR76" s="4"/>
       <c r="BS76" s="4"/>
       <c r="BT76" s="4"/>
@@ -16657,16 +16654,16 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
@@ -16693,8 +16690,8 @@
       <c r="AM77" s="4"/>
       <c r="AN77" s="4"/>
       <c r="AO77" s="4"/>
-      <c r="AP77" s="8"/>
-      <c r="AQ77" s="8"/>
+      <c r="AP77" s="7"/>
+      <c r="AQ77" s="7"/>
       <c r="AR77" s="4"/>
       <c r="AS77" s="4"/>
       <c r="AT77" s="4"/>
@@ -16712,15 +16709,15 @@
       <c r="BF77" s="4"/>
       <c r="BG77" s="4"/>
       <c r="BH77" s="4"/>
-      <c r="BI77" s="8"/>
-      <c r="BJ77" s="8"/>
-      <c r="BK77" s="8"/>
+      <c r="BI77" s="7"/>
+      <c r="BJ77" s="7"/>
+      <c r="BK77" s="7"/>
       <c r="BL77" s="4"/>
-      <c r="BM77" s="8"/>
-      <c r="BN77" s="8"/>
-      <c r="BO77" s="8"/>
-      <c r="BP77" s="8"/>
-      <c r="BQ77" s="8"/>
+      <c r="BM77" s="7"/>
+      <c r="BN77" s="7"/>
+      <c r="BO77" s="7"/>
+      <c r="BP77" s="7"/>
+      <c r="BQ77" s="7"/>
       <c r="BR77" s="4"/>
       <c r="BS77" s="4"/>
       <c r="BT77" s="4"/>
@@ -16733,16 +16730,16 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
@@ -16769,8 +16766,8 @@
       <c r="AM78" s="4"/>
       <c r="AN78" s="4"/>
       <c r="AO78" s="4"/>
-      <c r="AP78" s="8"/>
-      <c r="AQ78" s="8"/>
+      <c r="AP78" s="7"/>
+      <c r="AQ78" s="7"/>
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
       <c r="AT78" s="4"/>
@@ -16788,15 +16785,15 @@
       <c r="BF78" s="4"/>
       <c r="BG78" s="4"/>
       <c r="BH78" s="4"/>
-      <c r="BI78" s="8"/>
-      <c r="BJ78" s="8"/>
-      <c r="BK78" s="8"/>
+      <c r="BI78" s="7"/>
+      <c r="BJ78" s="7"/>
+      <c r="BK78" s="7"/>
       <c r="BL78" s="4"/>
-      <c r="BM78" s="8"/>
-      <c r="BN78" s="8"/>
-      <c r="BO78" s="8"/>
-      <c r="BP78" s="8"/>
-      <c r="BQ78" s="8"/>
+      <c r="BM78" s="7"/>
+      <c r="BN78" s="7"/>
+      <c r="BO78" s="7"/>
+      <c r="BP78" s="7"/>
+      <c r="BQ78" s="7"/>
       <c r="BR78" s="4"/>
       <c r="BS78" s="4"/>
       <c r="BT78" s="4"/>
@@ -16809,16 +16806,16 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
@@ -16845,8 +16842,8 @@
       <c r="AM79" s="4"/>
       <c r="AN79" s="4"/>
       <c r="AO79" s="4"/>
-      <c r="AP79" s="8"/>
-      <c r="AQ79" s="8"/>
+      <c r="AP79" s="7"/>
+      <c r="AQ79" s="7"/>
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
       <c r="AT79" s="4"/>
@@ -16864,15 +16861,15 @@
       <c r="BF79" s="4"/>
       <c r="BG79" s="4"/>
       <c r="BH79" s="4"/>
-      <c r="BI79" s="8"/>
-      <c r="BJ79" s="8"/>
-      <c r="BK79" s="8"/>
+      <c r="BI79" s="7"/>
+      <c r="BJ79" s="7"/>
+      <c r="BK79" s="7"/>
       <c r="BL79" s="4"/>
-      <c r="BM79" s="8"/>
-      <c r="BN79" s="8"/>
-      <c r="BO79" s="8"/>
-      <c r="BP79" s="8"/>
-      <c r="BQ79" s="8"/>
+      <c r="BM79" s="7"/>
+      <c r="BN79" s="7"/>
+      <c r="BO79" s="7"/>
+      <c r="BP79" s="7"/>
+      <c r="BQ79" s="7"/>
       <c r="BR79" s="4"/>
       <c r="BS79" s="4"/>
       <c r="BT79" s="4"/>
@@ -16885,16 +16882,16 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
@@ -16921,8 +16918,8 @@
       <c r="AM80" s="4"/>
       <c r="AN80" s="4"/>
       <c r="AO80" s="4"/>
-      <c r="AP80" s="8"/>
-      <c r="AQ80" s="8"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
       <c r="AR80" s="4"/>
       <c r="AS80" s="4"/>
       <c r="AT80" s="4"/>
@@ -16940,15 +16937,15 @@
       <c r="BF80" s="4"/>
       <c r="BG80" s="4"/>
       <c r="BH80" s="4"/>
-      <c r="BI80" s="8"/>
-      <c r="BJ80" s="8"/>
-      <c r="BK80" s="8"/>
+      <c r="BI80" s="7"/>
+      <c r="BJ80" s="7"/>
+      <c r="BK80" s="7"/>
       <c r="BL80" s="4"/>
-      <c r="BM80" s="8"/>
-      <c r="BN80" s="8"/>
-      <c r="BO80" s="8"/>
-      <c r="BP80" s="8"/>
-      <c r="BQ80" s="8"/>
+      <c r="BM80" s="7"/>
+      <c r="BN80" s="7"/>
+      <c r="BO80" s="7"/>
+      <c r="BP80" s="7"/>
+      <c r="BQ80" s="7"/>
       <c r="BR80" s="4"/>
       <c r="BS80" s="4"/>
       <c r="BT80" s="4"/>
@@ -16961,16 +16958,16 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
@@ -16997,8 +16994,8 @@
       <c r="AM81" s="4"/>
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
-      <c r="AP81" s="8"/>
-      <c r="AQ81" s="8"/>
+      <c r="AP81" s="7"/>
+      <c r="AQ81" s="7"/>
       <c r="AR81" s="4"/>
       <c r="AS81" s="4"/>
       <c r="AT81" s="4"/>
@@ -17016,15 +17013,15 @@
       <c r="BF81" s="4"/>
       <c r="BG81" s="4"/>
       <c r="BH81" s="4"/>
-      <c r="BI81" s="8"/>
-      <c r="BJ81" s="8"/>
-      <c r="BK81" s="8"/>
+      <c r="BI81" s="7"/>
+      <c r="BJ81" s="7"/>
+      <c r="BK81" s="7"/>
       <c r="BL81" s="4"/>
-      <c r="BM81" s="8"/>
-      <c r="BN81" s="8"/>
-      <c r="BO81" s="8"/>
-      <c r="BP81" s="8"/>
-      <c r="BQ81" s="8"/>
+      <c r="BM81" s="7"/>
+      <c r="BN81" s="7"/>
+      <c r="BO81" s="7"/>
+      <c r="BP81" s="7"/>
+      <c r="BQ81" s="7"/>
       <c r="BR81" s="4"/>
       <c r="BS81" s="4"/>
       <c r="BT81" s="4"/>
@@ -17037,16 +17034,16 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
@@ -17073,8 +17070,8 @@
       <c r="AM82" s="4"/>
       <c r="AN82" s="4"/>
       <c r="AO82" s="4"/>
-      <c r="AP82" s="8"/>
-      <c r="AQ82" s="8"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
       <c r="AR82" s="4"/>
       <c r="AS82" s="4"/>
       <c r="AT82" s="4"/>
@@ -17092,15 +17089,15 @@
       <c r="BF82" s="4"/>
       <c r="BG82" s="4"/>
       <c r="BH82" s="4"/>
-      <c r="BI82" s="8"/>
-      <c r="BJ82" s="8"/>
-      <c r="BK82" s="8"/>
+      <c r="BI82" s="7"/>
+      <c r="BJ82" s="7"/>
+      <c r="BK82" s="7"/>
       <c r="BL82" s="4"/>
-      <c r="BM82" s="8"/>
-      <c r="BN82" s="8"/>
-      <c r="BO82" s="8"/>
-      <c r="BP82" s="8"/>
-      <c r="BQ82" s="8"/>
+      <c r="BM82" s="7"/>
+      <c r="BN82" s="7"/>
+      <c r="BO82" s="7"/>
+      <c r="BP82" s="7"/>
+      <c r="BQ82" s="7"/>
       <c r="BR82" s="4"/>
       <c r="BS82" s="4"/>
       <c r="BT82" s="4"/>
@@ -17113,16 +17110,16 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -17149,8 +17146,8 @@
       <c r="AM83" s="4"/>
       <c r="AN83" s="4"/>
       <c r="AO83" s="4"/>
-      <c r="AP83" s="8"/>
-      <c r="AQ83" s="8"/>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
       <c r="AR83" s="4"/>
       <c r="AS83" s="4"/>
       <c r="AT83" s="4"/>
@@ -17168,15 +17165,15 @@
       <c r="BF83" s="4"/>
       <c r="BG83" s="4"/>
       <c r="BH83" s="4"/>
-      <c r="BI83" s="8"/>
-      <c r="BJ83" s="8"/>
-      <c r="BK83" s="8"/>
+      <c r="BI83" s="7"/>
+      <c r="BJ83" s="7"/>
+      <c r="BK83" s="7"/>
       <c r="BL83" s="4"/>
-      <c r="BM83" s="8"/>
-      <c r="BN83" s="8"/>
-      <c r="BO83" s="8"/>
-      <c r="BP83" s="8"/>
-      <c r="BQ83" s="8"/>
+      <c r="BM83" s="7"/>
+      <c r="BN83" s="7"/>
+      <c r="BO83" s="7"/>
+      <c r="BP83" s="7"/>
+      <c r="BQ83" s="7"/>
       <c r="BR83" s="4"/>
       <c r="BS83" s="4"/>
       <c r="BT83" s="4"/>
@@ -17189,16 +17186,16 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
@@ -17225,8 +17222,8 @@
       <c r="AM84" s="4"/>
       <c r="AN84" s="4"/>
       <c r="AO84" s="4"/>
-      <c r="AP84" s="8"/>
-      <c r="AQ84" s="8"/>
+      <c r="AP84" s="7"/>
+      <c r="AQ84" s="7"/>
       <c r="AR84" s="4"/>
       <c r="AS84" s="4"/>
       <c r="AT84" s="4"/>
@@ -17244,15 +17241,15 @@
       <c r="BF84" s="4"/>
       <c r="BG84" s="4"/>
       <c r="BH84" s="4"/>
-      <c r="BI84" s="8"/>
-      <c r="BJ84" s="8"/>
-      <c r="BK84" s="8"/>
+      <c r="BI84" s="7"/>
+      <c r="BJ84" s="7"/>
+      <c r="BK84" s="7"/>
       <c r="BL84" s="4"/>
-      <c r="BM84" s="8"/>
-      <c r="BN84" s="8"/>
-      <c r="BO84" s="8"/>
-      <c r="BP84" s="8"/>
-      <c r="BQ84" s="8"/>
+      <c r="BM84" s="7"/>
+      <c r="BN84" s="7"/>
+      <c r="BO84" s="7"/>
+      <c r="BP84" s="7"/>
+      <c r="BQ84" s="7"/>
       <c r="BR84" s="4"/>
       <c r="BS84" s="4"/>
       <c r="BT84" s="4"/>
@@ -17265,16 +17262,16 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
@@ -17301,8 +17298,8 @@
       <c r="AM85" s="4"/>
       <c r="AN85" s="4"/>
       <c r="AO85" s="4"/>
-      <c r="AP85" s="8"/>
-      <c r="AQ85" s="8"/>
+      <c r="AP85" s="7"/>
+      <c r="AQ85" s="7"/>
       <c r="AR85" s="4"/>
       <c r="AS85" s="4"/>
       <c r="AT85" s="4"/>
@@ -17320,15 +17317,15 @@
       <c r="BF85" s="4"/>
       <c r="BG85" s="4"/>
       <c r="BH85" s="4"/>
-      <c r="BI85" s="8"/>
-      <c r="BJ85" s="8"/>
-      <c r="BK85" s="8"/>
+      <c r="BI85" s="7"/>
+      <c r="BJ85" s="7"/>
+      <c r="BK85" s="7"/>
       <c r="BL85" s="4"/>
-      <c r="BM85" s="8"/>
-      <c r="BN85" s="8"/>
-      <c r="BO85" s="8"/>
-      <c r="BP85" s="8"/>
-      <c r="BQ85" s="8"/>
+      <c r="BM85" s="7"/>
+      <c r="BN85" s="7"/>
+      <c r="BO85" s="7"/>
+      <c r="BP85" s="7"/>
+      <c r="BQ85" s="7"/>
       <c r="BR85" s="4"/>
       <c r="BS85" s="4"/>
       <c r="BT85" s="4"/>
@@ -17341,16 +17338,16 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
@@ -17377,8 +17374,8 @@
       <c r="AM86" s="4"/>
       <c r="AN86" s="4"/>
       <c r="AO86" s="4"/>
-      <c r="AP86" s="8"/>
-      <c r="AQ86" s="8"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
       <c r="AR86" s="4"/>
       <c r="AS86" s="4"/>
       <c r="AT86" s="4"/>
@@ -17396,15 +17393,15 @@
       <c r="BF86" s="4"/>
       <c r="BG86" s="4"/>
       <c r="BH86" s="4"/>
-      <c r="BI86" s="8"/>
-      <c r="BJ86" s="8"/>
-      <c r="BK86" s="8"/>
+      <c r="BI86" s="7"/>
+      <c r="BJ86" s="7"/>
+      <c r="BK86" s="7"/>
       <c r="BL86" s="4"/>
-      <c r="BM86" s="8"/>
-      <c r="BN86" s="8"/>
-      <c r="BO86" s="8"/>
-      <c r="BP86" s="8"/>
-      <c r="BQ86" s="8"/>
+      <c r="BM86" s="7"/>
+      <c r="BN86" s="7"/>
+      <c r="BO86" s="7"/>
+      <c r="BP86" s="7"/>
+      <c r="BQ86" s="7"/>
       <c r="BR86" s="4"/>
       <c r="BS86" s="4"/>
       <c r="BT86" s="4"/>
@@ -17417,16 +17414,16 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
@@ -17453,8 +17450,8 @@
       <c r="AM87" s="4"/>
       <c r="AN87" s="4"/>
       <c r="AO87" s="4"/>
-      <c r="AP87" s="8"/>
-      <c r="AQ87" s="8"/>
+      <c r="AP87" s="7"/>
+      <c r="AQ87" s="7"/>
       <c r="AR87" s="4"/>
       <c r="AS87" s="4"/>
       <c r="AT87" s="4"/>
@@ -17472,15 +17469,15 @@
       <c r="BF87" s="4"/>
       <c r="BG87" s="4"/>
       <c r="BH87" s="4"/>
-      <c r="BI87" s="8"/>
-      <c r="BJ87" s="8"/>
-      <c r="BK87" s="8"/>
+      <c r="BI87" s="7"/>
+      <c r="BJ87" s="7"/>
+      <c r="BK87" s="7"/>
       <c r="BL87" s="4"/>
-      <c r="BM87" s="8"/>
-      <c r="BN87" s="8"/>
-      <c r="BO87" s="8"/>
-      <c r="BP87" s="8"/>
-      <c r="BQ87" s="8"/>
+      <c r="BM87" s="7"/>
+      <c r="BN87" s="7"/>
+      <c r="BO87" s="7"/>
+      <c r="BP87" s="7"/>
+      <c r="BQ87" s="7"/>
       <c r="BR87" s="4"/>
       <c r="BS87" s="4"/>
       <c r="BT87" s="4"/>
@@ -17493,16 +17490,16 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
@@ -17529,8 +17526,8 @@
       <c r="AM88" s="4"/>
       <c r="AN88" s="4"/>
       <c r="AO88" s="4"/>
-      <c r="AP88" s="8"/>
-      <c r="AQ88" s="8"/>
+      <c r="AP88" s="7"/>
+      <c r="AQ88" s="7"/>
       <c r="AR88" s="4"/>
       <c r="AS88" s="4"/>
       <c r="AT88" s="4"/>
@@ -17548,15 +17545,15 @@
       <c r="BF88" s="4"/>
       <c r="BG88" s="4"/>
       <c r="BH88" s="4"/>
-      <c r="BI88" s="8"/>
-      <c r="BJ88" s="8"/>
-      <c r="BK88" s="8"/>
+      <c r="BI88" s="7"/>
+      <c r="BJ88" s="7"/>
+      <c r="BK88" s="7"/>
       <c r="BL88" s="4"/>
-      <c r="BM88" s="8"/>
-      <c r="BN88" s="8"/>
-      <c r="BO88" s="8"/>
-      <c r="BP88" s="8"/>
-      <c r="BQ88" s="8"/>
+      <c r="BM88" s="7"/>
+      <c r="BN88" s="7"/>
+      <c r="BO88" s="7"/>
+      <c r="BP88" s="7"/>
+      <c r="BQ88" s="7"/>
       <c r="BR88" s="4"/>
       <c r="BS88" s="4"/>
       <c r="BT88" s="4"/>
@@ -17569,16 +17566,16 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
@@ -17605,8 +17602,8 @@
       <c r="AM89" s="4"/>
       <c r="AN89" s="4"/>
       <c r="AO89" s="4"/>
-      <c r="AP89" s="8"/>
-      <c r="AQ89" s="8"/>
+      <c r="AP89" s="7"/>
+      <c r="AQ89" s="7"/>
       <c r="AR89" s="4"/>
       <c r="AS89" s="4"/>
       <c r="AT89" s="4"/>
@@ -17624,15 +17621,15 @@
       <c r="BF89" s="4"/>
       <c r="BG89" s="4"/>
       <c r="BH89" s="4"/>
-      <c r="BI89" s="8"/>
-      <c r="BJ89" s="8"/>
-      <c r="BK89" s="8"/>
+      <c r="BI89" s="7"/>
+      <c r="BJ89" s="7"/>
+      <c r="BK89" s="7"/>
       <c r="BL89" s="4"/>
-      <c r="BM89" s="8"/>
-      <c r="BN89" s="8"/>
-      <c r="BO89" s="8"/>
-      <c r="BP89" s="8"/>
-      <c r="BQ89" s="8"/>
+      <c r="BM89" s="7"/>
+      <c r="BN89" s="7"/>
+      <c r="BO89" s="7"/>
+      <c r="BP89" s="7"/>
+      <c r="BQ89" s="7"/>
       <c r="BR89" s="4"/>
       <c r="BS89" s="4"/>
       <c r="BT89" s="4"/>
@@ -17645,16 +17642,16 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
@@ -17681,8 +17678,8 @@
       <c r="AM90" s="4"/>
       <c r="AN90" s="4"/>
       <c r="AO90" s="4"/>
-      <c r="AP90" s="8"/>
-      <c r="AQ90" s="8"/>
+      <c r="AP90" s="7"/>
+      <c r="AQ90" s="7"/>
       <c r="AR90" s="4"/>
       <c r="AS90" s="4"/>
       <c r="AT90" s="4"/>
@@ -17700,15 +17697,15 @@
       <c r="BF90" s="4"/>
       <c r="BG90" s="4"/>
       <c r="BH90" s="4"/>
-      <c r="BI90" s="8"/>
-      <c r="BJ90" s="8"/>
-      <c r="BK90" s="8"/>
+      <c r="BI90" s="7"/>
+      <c r="BJ90" s="7"/>
+      <c r="BK90" s="7"/>
       <c r="BL90" s="4"/>
-      <c r="BM90" s="8"/>
-      <c r="BN90" s="8"/>
-      <c r="BO90" s="8"/>
-      <c r="BP90" s="8"/>
-      <c r="BQ90" s="8"/>
+      <c r="BM90" s="7"/>
+      <c r="BN90" s="7"/>
+      <c r="BO90" s="7"/>
+      <c r="BP90" s="7"/>
+      <c r="BQ90" s="7"/>
       <c r="BR90" s="4"/>
       <c r="BS90" s="4"/>
       <c r="BT90" s="4"/>
@@ -17721,16 +17718,16 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
@@ -17757,8 +17754,8 @@
       <c r="AM91" s="4"/>
       <c r="AN91" s="4"/>
       <c r="AO91" s="4"/>
-      <c r="AP91" s="8"/>
-      <c r="AQ91" s="8"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
       <c r="AR91" s="4"/>
       <c r="AS91" s="4"/>
       <c r="AT91" s="4"/>
@@ -17776,15 +17773,15 @@
       <c r="BF91" s="4"/>
       <c r="BG91" s="4"/>
       <c r="BH91" s="4"/>
-      <c r="BI91" s="8"/>
-      <c r="BJ91" s="8"/>
-      <c r="BK91" s="8"/>
+      <c r="BI91" s="7"/>
+      <c r="BJ91" s="7"/>
+      <c r="BK91" s="7"/>
       <c r="BL91" s="4"/>
-      <c r="BM91" s="8"/>
-      <c r="BN91" s="8"/>
-      <c r="BO91" s="8"/>
-      <c r="BP91" s="8"/>
-      <c r="BQ91" s="8"/>
+      <c r="BM91" s="7"/>
+      <c r="BN91" s="7"/>
+      <c r="BO91" s="7"/>
+      <c r="BP91" s="7"/>
+      <c r="BQ91" s="7"/>
       <c r="BR91" s="4"/>
       <c r="BS91" s="4"/>
       <c r="BT91" s="4"/>
@@ -17797,16 +17794,16 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
@@ -17833,8 +17830,8 @@
       <c r="AM92" s="4"/>
       <c r="AN92" s="4"/>
       <c r="AO92" s="4"/>
-      <c r="AP92" s="8"/>
-      <c r="AQ92" s="8"/>
+      <c r="AP92" s="7"/>
+      <c r="AQ92" s="7"/>
       <c r="AR92" s="4"/>
       <c r="AS92" s="4"/>
       <c r="AT92" s="4"/>
@@ -17852,15 +17849,15 @@
       <c r="BF92" s="4"/>
       <c r="BG92" s="4"/>
       <c r="BH92" s="4"/>
-      <c r="BI92" s="8"/>
-      <c r="BJ92" s="8"/>
-      <c r="BK92" s="8"/>
+      <c r="BI92" s="7"/>
+      <c r="BJ92" s="7"/>
+      <c r="BK92" s="7"/>
       <c r="BL92" s="4"/>
-      <c r="BM92" s="8"/>
-      <c r="BN92" s="8"/>
-      <c r="BO92" s="8"/>
-      <c r="BP92" s="8"/>
-      <c r="BQ92" s="8"/>
+      <c r="BM92" s="7"/>
+      <c r="BN92" s="7"/>
+      <c r="BO92" s="7"/>
+      <c r="BP92" s="7"/>
+      <c r="BQ92" s="7"/>
       <c r="BR92" s="4"/>
       <c r="BS92" s="4"/>
       <c r="BT92" s="4"/>
@@ -17873,16 +17870,16 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
@@ -17909,8 +17906,8 @@
       <c r="AM93" s="4"/>
       <c r="AN93" s="4"/>
       <c r="AO93" s="4"/>
-      <c r="AP93" s="8"/>
-      <c r="AQ93" s="8"/>
+      <c r="AP93" s="7"/>
+      <c r="AQ93" s="7"/>
       <c r="AR93" s="4"/>
       <c r="AS93" s="4"/>
       <c r="AT93" s="4"/>
@@ -17928,15 +17925,15 @@
       <c r="BF93" s="4"/>
       <c r="BG93" s="4"/>
       <c r="BH93" s="4"/>
-      <c r="BI93" s="8"/>
-      <c r="BJ93" s="8"/>
-      <c r="BK93" s="8"/>
+      <c r="BI93" s="7"/>
+      <c r="BJ93" s="7"/>
+      <c r="BK93" s="7"/>
       <c r="BL93" s="4"/>
-      <c r="BM93" s="8"/>
-      <c r="BN93" s="8"/>
-      <c r="BO93" s="8"/>
-      <c r="BP93" s="8"/>
-      <c r="BQ93" s="8"/>
+      <c r="BM93" s="7"/>
+      <c r="BN93" s="7"/>
+      <c r="BO93" s="7"/>
+      <c r="BP93" s="7"/>
+      <c r="BQ93" s="7"/>
       <c r="BR93" s="4"/>
       <c r="BS93" s="4"/>
       <c r="BT93" s="4"/>
@@ -17949,16 +17946,16 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
@@ -17985,8 +17982,8 @@
       <c r="AM94" s="4"/>
       <c r="AN94" s="4"/>
       <c r="AO94" s="4"/>
-      <c r="AP94" s="8"/>
-      <c r="AQ94" s="8"/>
+      <c r="AP94" s="7"/>
+      <c r="AQ94" s="7"/>
       <c r="AR94" s="4"/>
       <c r="AS94" s="4"/>
       <c r="AT94" s="4"/>
@@ -18004,15 +18001,15 @@
       <c r="BF94" s="4"/>
       <c r="BG94" s="4"/>
       <c r="BH94" s="4"/>
-      <c r="BI94" s="8"/>
-      <c r="BJ94" s="8"/>
-      <c r="BK94" s="8"/>
+      <c r="BI94" s="7"/>
+      <c r="BJ94" s="7"/>
+      <c r="BK94" s="7"/>
       <c r="BL94" s="4"/>
-      <c r="BM94" s="8"/>
-      <c r="BN94" s="8"/>
-      <c r="BO94" s="8"/>
-      <c r="BP94" s="8"/>
-      <c r="BQ94" s="8"/>
+      <c r="BM94" s="7"/>
+      <c r="BN94" s="7"/>
+      <c r="BO94" s="7"/>
+      <c r="BP94" s="7"/>
+      <c r="BQ94" s="7"/>
       <c r="BR94" s="4"/>
       <c r="BS94" s="4"/>
       <c r="BT94" s="4"/>
@@ -18025,16 +18022,16 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
@@ -18061,8 +18058,8 @@
       <c r="AM95" s="4"/>
       <c r="AN95" s="4"/>
       <c r="AO95" s="4"/>
-      <c r="AP95" s="8"/>
-      <c r="AQ95" s="8"/>
+      <c r="AP95" s="7"/>
+      <c r="AQ95" s="7"/>
       <c r="AR95" s="4"/>
       <c r="AS95" s="4"/>
       <c r="AT95" s="4"/>
@@ -18080,15 +18077,15 @@
       <c r="BF95" s="4"/>
       <c r="BG95" s="4"/>
       <c r="BH95" s="4"/>
-      <c r="BI95" s="8"/>
-      <c r="BJ95" s="8"/>
-      <c r="BK95" s="8"/>
+      <c r="BI95" s="7"/>
+      <c r="BJ95" s="7"/>
+      <c r="BK95" s="7"/>
       <c r="BL95" s="4"/>
-      <c r="BM95" s="8"/>
-      <c r="BN95" s="8"/>
-      <c r="BO95" s="8"/>
-      <c r="BP95" s="8"/>
-      <c r="BQ95" s="8"/>
+      <c r="BM95" s="7"/>
+      <c r="BN95" s="7"/>
+      <c r="BO95" s="7"/>
+      <c r="BP95" s="7"/>
+      <c r="BQ95" s="7"/>
       <c r="BR95" s="4"/>
       <c r="BS95" s="4"/>
       <c r="BT95" s="4"/>
@@ -18101,16 +18098,16 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
@@ -18137,8 +18134,8 @@
       <c r="AM96" s="4"/>
       <c r="AN96" s="4"/>
       <c r="AO96" s="4"/>
-      <c r="AP96" s="8"/>
-      <c r="AQ96" s="8"/>
+      <c r="AP96" s="7"/>
+      <c r="AQ96" s="7"/>
       <c r="AR96" s="4"/>
       <c r="AS96" s="4"/>
       <c r="AT96" s="4"/>
@@ -18156,15 +18153,15 @@
       <c r="BF96" s="4"/>
       <c r="BG96" s="4"/>
       <c r="BH96" s="4"/>
-      <c r="BI96" s="8"/>
-      <c r="BJ96" s="8"/>
-      <c r="BK96" s="8"/>
+      <c r="BI96" s="7"/>
+      <c r="BJ96" s="7"/>
+      <c r="BK96" s="7"/>
       <c r="BL96" s="4"/>
-      <c r="BM96" s="8"/>
-      <c r="BN96" s="8"/>
-      <c r="BO96" s="8"/>
-      <c r="BP96" s="8"/>
-      <c r="BQ96" s="8"/>
+      <c r="BM96" s="7"/>
+      <c r="BN96" s="7"/>
+      <c r="BO96" s="7"/>
+      <c r="BP96" s="7"/>
+      <c r="BQ96" s="7"/>
       <c r="BR96" s="4"/>
       <c r="BS96" s="4"/>
       <c r="BT96" s="4"/>
@@ -18177,16 +18174,16 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
@@ -18213,8 +18210,8 @@
       <c r="AM97" s="4"/>
       <c r="AN97" s="4"/>
       <c r="AO97" s="4"/>
-      <c r="AP97" s="8"/>
-      <c r="AQ97" s="8"/>
+      <c r="AP97" s="7"/>
+      <c r="AQ97" s="7"/>
       <c r="AR97" s="4"/>
       <c r="AS97" s="4"/>
       <c r="AT97" s="4"/>
@@ -18232,15 +18229,15 @@
       <c r="BF97" s="4"/>
       <c r="BG97" s="4"/>
       <c r="BH97" s="4"/>
-      <c r="BI97" s="8"/>
-      <c r="BJ97" s="8"/>
-      <c r="BK97" s="8"/>
+      <c r="BI97" s="7"/>
+      <c r="BJ97" s="7"/>
+      <c r="BK97" s="7"/>
       <c r="BL97" s="4"/>
-      <c r="BM97" s="8"/>
-      <c r="BN97" s="8"/>
-      <c r="BO97" s="8"/>
-      <c r="BP97" s="8"/>
-      <c r="BQ97" s="8"/>
+      <c r="BM97" s="7"/>
+      <c r="BN97" s="7"/>
+      <c r="BO97" s="7"/>
+      <c r="BP97" s="7"/>
+      <c r="BQ97" s="7"/>
       <c r="BR97" s="4"/>
       <c r="BS97" s="4"/>
       <c r="BT97" s="4"/>
@@ -18253,16 +18250,16 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
@@ -18289,8 +18286,8 @@
       <c r="AM98" s="4"/>
       <c r="AN98" s="4"/>
       <c r="AO98" s="4"/>
-      <c r="AP98" s="8"/>
-      <c r="AQ98" s="8"/>
+      <c r="AP98" s="7"/>
+      <c r="AQ98" s="7"/>
       <c r="AR98" s="4"/>
       <c r="AS98" s="4"/>
       <c r="AT98" s="4"/>
@@ -18308,15 +18305,15 @@
       <c r="BF98" s="4"/>
       <c r="BG98" s="4"/>
       <c r="BH98" s="4"/>
-      <c r="BI98" s="8"/>
-      <c r="BJ98" s="8"/>
-      <c r="BK98" s="8"/>
+      <c r="BI98" s="7"/>
+      <c r="BJ98" s="7"/>
+      <c r="BK98" s="7"/>
       <c r="BL98" s="4"/>
-      <c r="BM98" s="8"/>
-      <c r="BN98" s="8"/>
-      <c r="BO98" s="8"/>
-      <c r="BP98" s="8"/>
-      <c r="BQ98" s="8"/>
+      <c r="BM98" s="7"/>
+      <c r="BN98" s="7"/>
+      <c r="BO98" s="7"/>
+      <c r="BP98" s="7"/>
+      <c r="BQ98" s="7"/>
       <c r="BR98" s="4"/>
       <c r="BS98" s="4"/>
       <c r="BT98" s="4"/>
@@ -18329,16 +18326,16 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
@@ -18365,8 +18362,8 @@
       <c r="AM99" s="4"/>
       <c r="AN99" s="4"/>
       <c r="AO99" s="4"/>
-      <c r="AP99" s="8"/>
-      <c r="AQ99" s="8"/>
+      <c r="AP99" s="7"/>
+      <c r="AQ99" s="7"/>
       <c r="AR99" s="4"/>
       <c r="AS99" s="4"/>
       <c r="AT99" s="4"/>
@@ -18384,15 +18381,15 @@
       <c r="BF99" s="4"/>
       <c r="BG99" s="4"/>
       <c r="BH99" s="4"/>
-      <c r="BI99" s="8"/>
-      <c r="BJ99" s="8"/>
-      <c r="BK99" s="8"/>
+      <c r="BI99" s="7"/>
+      <c r="BJ99" s="7"/>
+      <c r="BK99" s="7"/>
       <c r="BL99" s="4"/>
-      <c r="BM99" s="8"/>
-      <c r="BN99" s="8"/>
-      <c r="BO99" s="8"/>
-      <c r="BP99" s="8"/>
-      <c r="BQ99" s="8"/>
+      <c r="BM99" s="7"/>
+      <c r="BN99" s="7"/>
+      <c r="BO99" s="7"/>
+      <c r="BP99" s="7"/>
+      <c r="BQ99" s="7"/>
       <c r="BR99" s="4"/>
       <c r="BS99" s="4"/>
       <c r="BT99" s="4"/>
@@ -18405,16 +18402,16 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
@@ -18441,8 +18438,8 @@
       <c r="AM100" s="4"/>
       <c r="AN100" s="4"/>
       <c r="AO100" s="4"/>
-      <c r="AP100" s="8"/>
-      <c r="AQ100" s="8"/>
+      <c r="AP100" s="7"/>
+      <c r="AQ100" s="7"/>
       <c r="AR100" s="4"/>
       <c r="AS100" s="4"/>
       <c r="AT100" s="4"/>
@@ -18460,15 +18457,15 @@
       <c r="BF100" s="4"/>
       <c r="BG100" s="4"/>
       <c r="BH100" s="4"/>
-      <c r="BI100" s="8"/>
-      <c r="BJ100" s="8"/>
-      <c r="BK100" s="8"/>
+      <c r="BI100" s="7"/>
+      <c r="BJ100" s="7"/>
+      <c r="BK100" s="7"/>
       <c r="BL100" s="4"/>
-      <c r="BM100" s="8"/>
-      <c r="BN100" s="8"/>
-      <c r="BO100" s="8"/>
-      <c r="BP100" s="8"/>
-      <c r="BQ100" s="8"/>
+      <c r="BM100" s="7"/>
+      <c r="BN100" s="7"/>
+      <c r="BO100" s="7"/>
+      <c r="BP100" s="7"/>
+      <c r="BQ100" s="7"/>
       <c r="BR100" s="4"/>
       <c r="BS100" s="4"/>
       <c r="BT100" s="4"/>
@@ -18481,16 +18478,16 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
@@ -18517,8 +18514,8 @@
       <c r="AM101" s="4"/>
       <c r="AN101" s="4"/>
       <c r="AO101" s="4"/>
-      <c r="AP101" s="8"/>
-      <c r="AQ101" s="8"/>
+      <c r="AP101" s="7"/>
+      <c r="AQ101" s="7"/>
       <c r="AR101" s="4"/>
       <c r="AS101" s="4"/>
       <c r="AT101" s="4"/>
@@ -18536,15 +18533,15 @@
       <c r="BF101" s="4"/>
       <c r="BG101" s="4"/>
       <c r="BH101" s="4"/>
-      <c r="BI101" s="8"/>
-      <c r="BJ101" s="8"/>
-      <c r="BK101" s="8"/>
+      <c r="BI101" s="7"/>
+      <c r="BJ101" s="7"/>
+      <c r="BK101" s="7"/>
       <c r="BL101" s="4"/>
-      <c r="BM101" s="8"/>
-      <c r="BN101" s="8"/>
-      <c r="BO101" s="8"/>
-      <c r="BP101" s="8"/>
-      <c r="BQ101" s="8"/>
+      <c r="BM101" s="7"/>
+      <c r="BN101" s="7"/>
+      <c r="BO101" s="7"/>
+      <c r="BP101" s="7"/>
+      <c r="BQ101" s="7"/>
       <c r="BR101" s="4"/>
       <c r="BS101" s="4"/>
       <c r="BT101" s="4"/>
@@ -18557,16 +18554,16 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
@@ -18593,8 +18590,8 @@
       <c r="AM102" s="4"/>
       <c r="AN102" s="4"/>
       <c r="AO102" s="4"/>
-      <c r="AP102" s="8"/>
-      <c r="AQ102" s="8"/>
+      <c r="AP102" s="7"/>
+      <c r="AQ102" s="7"/>
       <c r="AR102" s="4"/>
       <c r="AS102" s="4"/>
       <c r="AT102" s="4"/>
@@ -18612,15 +18609,15 @@
       <c r="BF102" s="4"/>
       <c r="BG102" s="4"/>
       <c r="BH102" s="4"/>
-      <c r="BI102" s="8"/>
-      <c r="BJ102" s="8"/>
-      <c r="BK102" s="8"/>
+      <c r="BI102" s="7"/>
+      <c r="BJ102" s="7"/>
+      <c r="BK102" s="7"/>
       <c r="BL102" s="4"/>
-      <c r="BM102" s="8"/>
-      <c r="BN102" s="8"/>
-      <c r="BO102" s="8"/>
-      <c r="BP102" s="8"/>
-      <c r="BQ102" s="8"/>
+      <c r="BM102" s="7"/>
+      <c r="BN102" s="7"/>
+      <c r="BO102" s="7"/>
+      <c r="BP102" s="7"/>
+      <c r="BQ102" s="7"/>
       <c r="BR102" s="4"/>
       <c r="BS102" s="4"/>
       <c r="BT102" s="4"/>
@@ -18633,16 +18630,16 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
@@ -18669,8 +18666,8 @@
       <c r="AM103" s="4"/>
       <c r="AN103" s="4"/>
       <c r="AO103" s="4"/>
-      <c r="AP103" s="8"/>
-      <c r="AQ103" s="8"/>
+      <c r="AP103" s="7"/>
+      <c r="AQ103" s="7"/>
       <c r="AR103" s="4"/>
       <c r="AS103" s="4"/>
       <c r="AT103" s="4"/>
@@ -18688,15 +18685,15 @@
       <c r="BF103" s="4"/>
       <c r="BG103" s="4"/>
       <c r="BH103" s="4"/>
-      <c r="BI103" s="8"/>
-      <c r="BJ103" s="8"/>
-      <c r="BK103" s="8"/>
+      <c r="BI103" s="7"/>
+      <c r="BJ103" s="7"/>
+      <c r="BK103" s="7"/>
       <c r="BL103" s="4"/>
-      <c r="BM103" s="8"/>
-      <c r="BN103" s="8"/>
-      <c r="BO103" s="8"/>
-      <c r="BP103" s="8"/>
-      <c r="BQ103" s="8"/>
+      <c r="BM103" s="7"/>
+      <c r="BN103" s="7"/>
+      <c r="BO103" s="7"/>
+      <c r="BP103" s="7"/>
+      <c r="BQ103" s="7"/>
       <c r="BR103" s="4"/>
       <c r="BS103" s="4"/>
       <c r="BT103" s="4"/>
@@ -18709,16 +18706,16 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
@@ -18745,8 +18742,8 @@
       <c r="AM104" s="4"/>
       <c r="AN104" s="4"/>
       <c r="AO104" s="4"/>
-      <c r="AP104" s="8"/>
-      <c r="AQ104" s="8"/>
+      <c r="AP104" s="7"/>
+      <c r="AQ104" s="7"/>
       <c r="AR104" s="4"/>
       <c r="AS104" s="4"/>
       <c r="AT104" s="4"/>
@@ -18764,15 +18761,15 @@
       <c r="BF104" s="4"/>
       <c r="BG104" s="4"/>
       <c r="BH104" s="4"/>
-      <c r="BI104" s="8"/>
-      <c r="BJ104" s="8"/>
-      <c r="BK104" s="8"/>
+      <c r="BI104" s="7"/>
+      <c r="BJ104" s="7"/>
+      <c r="BK104" s="7"/>
       <c r="BL104" s="4"/>
-      <c r="BM104" s="8"/>
-      <c r="BN104" s="8"/>
-      <c r="BO104" s="8"/>
-      <c r="BP104" s="8"/>
-      <c r="BQ104" s="8"/>
+      <c r="BM104" s="7"/>
+      <c r="BN104" s="7"/>
+      <c r="BO104" s="7"/>
+      <c r="BP104" s="7"/>
+      <c r="BQ104" s="7"/>
       <c r="BR104" s="4"/>
       <c r="BS104" s="4"/>
       <c r="BT104" s="4"/>
@@ -18785,16 +18782,16 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
       <c r="T105" s="4"/>
@@ -18821,8 +18818,8 @@
       <c r="AM105" s="4"/>
       <c r="AN105" s="4"/>
       <c r="AO105" s="4"/>
-      <c r="AP105" s="8"/>
-      <c r="AQ105" s="8"/>
+      <c r="AP105" s="7"/>
+      <c r="AQ105" s="7"/>
       <c r="AR105" s="4"/>
       <c r="AS105" s="4"/>
       <c r="AT105" s="4"/>
@@ -18840,15 +18837,15 @@
       <c r="BF105" s="4"/>
       <c r="BG105" s="4"/>
       <c r="BH105" s="4"/>
-      <c r="BI105" s="8"/>
-      <c r="BJ105" s="8"/>
-      <c r="BK105" s="8"/>
+      <c r="BI105" s="7"/>
+      <c r="BJ105" s="7"/>
+      <c r="BK105" s="7"/>
       <c r="BL105" s="4"/>
-      <c r="BM105" s="8"/>
-      <c r="BN105" s="8"/>
-      <c r="BO105" s="8"/>
-      <c r="BP105" s="8"/>
-      <c r="BQ105" s="8"/>
+      <c r="BM105" s="7"/>
+      <c r="BN105" s="7"/>
+      <c r="BO105" s="7"/>
+      <c r="BP105" s="7"/>
+      <c r="BQ105" s="7"/>
       <c r="BR105" s="4"/>
       <c r="BS105" s="4"/>
       <c r="BT105" s="4"/>
@@ -18861,16 +18858,16 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
@@ -18897,8 +18894,8 @@
       <c r="AM106" s="4"/>
       <c r="AN106" s="4"/>
       <c r="AO106" s="4"/>
-      <c r="AP106" s="8"/>
-      <c r="AQ106" s="8"/>
+      <c r="AP106" s="7"/>
+      <c r="AQ106" s="7"/>
       <c r="AR106" s="4"/>
       <c r="AS106" s="4"/>
       <c r="AT106" s="4"/>
@@ -18916,15 +18913,15 @@
       <c r="BF106" s="4"/>
       <c r="BG106" s="4"/>
       <c r="BH106" s="4"/>
-      <c r="BI106" s="8"/>
-      <c r="BJ106" s="8"/>
-      <c r="BK106" s="8"/>
+      <c r="BI106" s="7"/>
+      <c r="BJ106" s="7"/>
+      <c r="BK106" s="7"/>
       <c r="BL106" s="4"/>
-      <c r="BM106" s="8"/>
-      <c r="BN106" s="8"/>
-      <c r="BO106" s="8"/>
-      <c r="BP106" s="8"/>
-      <c r="BQ106" s="8"/>
+      <c r="BM106" s="7"/>
+      <c r="BN106" s="7"/>
+      <c r="BO106" s="7"/>
+      <c r="BP106" s="7"/>
+      <c r="BQ106" s="7"/>
       <c r="BR106" s="4"/>
       <c r="BS106" s="4"/>
       <c r="BT106" s="4"/>
